--- a/data/trans_orig/P25A$medico-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Edad-trans_orig.xlsx
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5764</v>
+        <v>5048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1192948740163366</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3732606107512864</v>
+        <v>0.3269177443868991</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5475</v>
+        <v>5876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06891721638179514</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.204822331235949</v>
+        <v>0.2198097470037775</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5549</v>
+        <v>5855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.116323370738228</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3593124396092515</v>
+        <v>0.3791368421516484</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5772</v>
+        <v>5367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06720056479818579</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2159144656992505</v>
+        <v>0.2007745796544261</v>
       </c>
     </row>
     <row r="6">
@@ -882,19 +882,19 @@
         <v>3448</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7729</v>
+        <v>8060</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2233116819036289</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06139970527378754</v>
+        <v>0.06143692001164875</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5004865460436101</v>
+        <v>0.5219254713879785</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -903,19 +903,19 @@
         <v>3449</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9083</v>
+        <v>8930</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1290082212604327</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03545656646556741</v>
+        <v>0.03469919248512218</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3397804218771164</v>
+        <v>0.3340584838596631</v>
       </c>
     </row>
     <row r="7">
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5631</v>
+        <v>5534</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1834693257063604</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4988869679770161</v>
+        <v>0.4902427300621628</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6475</v>
+        <v>7075</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07747822321024012</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2422160569035607</v>
+        <v>0.2646860641883185</v>
       </c>
     </row>
     <row r="8">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4260</v>
+        <v>4306</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08760675348699927</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3774267208731404</v>
+        <v>0.3814378246841096</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3982</v>
+        <v>4001</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06081374190685914</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2578390643888578</v>
+        <v>0.2590760362249209</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5987</v>
+        <v>5997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07212830320307849</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2239839641985429</v>
+        <v>0.2243451310241525</v>
       </c>
     </row>
     <row r="9">
@@ -1066,19 +1066,19 @@
         <v>8228</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4733</v>
+        <v>4860</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10463</v>
+        <v>10417</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7289239208066404</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4192905060801267</v>
+        <v>0.4305588206196289</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9269291610964273</v>
+        <v>0.9228174605623335</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1087,19 +1087,19 @@
         <v>10176</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6097</v>
+        <v>5650</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13472</v>
+        <v>13509</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6589852234371516</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3948331635343308</v>
+        <v>0.3658741807237586</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8724517710289423</v>
+        <v>0.8748078472991232</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1108,19 +1108,19 @@
         <v>18405</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12045</v>
+        <v>12315</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22531</v>
+        <v>22777</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6885200025342267</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4506122290839968</v>
+        <v>0.4606855612360746</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8428910081866119</v>
+        <v>0.8520714458446413</v>
       </c>
     </row>
     <row r="10">
@@ -1141,19 +1141,19 @@
         <v>4359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9696</v>
+        <v>9969</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1104904924300874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02655176161935344</v>
+        <v>0.02641583663100948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2457567608566271</v>
+        <v>0.252678299134555</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1162,19 +1162,19 @@
         <v>6078</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2099</v>
+        <v>2048</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12215</v>
+        <v>11489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08674704981563587</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02995942970255572</v>
+        <v>0.02923118824524731</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1743301000155327</v>
+        <v>0.1639738740923162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1183,19 +1183,19 @@
         <v>10437</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5284</v>
+        <v>5825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17575</v>
+        <v>18195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09530048996595512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04824544803939868</v>
+        <v>0.05318518819826049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1604777824200335</v>
+        <v>0.1661347210971587</v>
       </c>
     </row>
     <row r="11">
@@ -1212,19 +1212,19 @@
         <v>4640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1811</v>
+        <v>1753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9438</v>
+        <v>9599</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1175992236351076</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0458931971663086</v>
+        <v>0.04442478904359878</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2392066769207196</v>
+        <v>0.2432867278663521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1233,19 +1233,19 @@
         <v>7367</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3162</v>
+        <v>3103</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13351</v>
+        <v>13750</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1051473940111254</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04513296171303514</v>
+        <v>0.04428387772378396</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1905486942529387</v>
+        <v>0.1962468015789615</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1254,19 +1254,19 @@
         <v>12007</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6857</v>
+        <v>6731</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20616</v>
+        <v>19452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1096330948077689</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06261167714152099</v>
+        <v>0.06145823584263971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1882368272070266</v>
+        <v>0.1776085339449126</v>
       </c>
     </row>
     <row r="12">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5813</v>
+        <v>5042</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0262803368749039</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1473281377681161</v>
+        <v>0.1278069679392217</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -1304,19 +1304,19 @@
         <v>15837</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9495</v>
+        <v>9798</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24113</v>
+        <v>24826</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2260249761285641</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.135511692264468</v>
+        <v>0.1398419633889199</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3441431801788529</v>
+        <v>0.3543220262332274</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1325,19 +1325,19 @@
         <v>16873</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10236</v>
+        <v>10385</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26083</v>
+        <v>25564</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1540681059751431</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09346682514689045</v>
+        <v>0.09482526680813079</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2381614765482891</v>
+        <v>0.23342078648143</v>
       </c>
     </row>
     <row r="13">
@@ -1354,19 +1354,19 @@
         <v>3505</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>896</v>
+        <v>869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9852</v>
+        <v>8926</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08883779832635676</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02271517932189063</v>
+        <v>0.02203755370670386</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2496972124029287</v>
+        <v>0.226250165225626</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1375,19 +1375,19 @@
         <v>10979</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6124</v>
+        <v>5970</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18557</v>
+        <v>17164</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.156696797907288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08740308484540292</v>
+        <v>0.08520968888562609</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2648533629638712</v>
+        <v>0.244970539892449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1396,19 +1396,19 @@
         <v>14484</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8698</v>
+        <v>8769</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23288</v>
+        <v>22976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1322509792869185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07941925936244465</v>
+        <v>0.08006426134562038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2126354150226577</v>
+        <v>0.2097887909560402</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5251</v>
+        <v>5027</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02507564377393087</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1330819454636428</v>
+        <v>0.127401882585034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5053</v>
+        <v>5058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.009033358040526825</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04614136430109318</v>
+        <v>0.04618829755084936</v>
       </c>
     </row>
     <row r="15">
@@ -1488,19 +1488,19 @@
         <v>29233</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22856</v>
+        <v>23016</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33937</v>
+        <v>33998</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7409426563361204</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5793119831435539</v>
+        <v>0.5833710573696017</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8601636808410363</v>
+        <v>0.8617084494507924</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -1509,19 +1509,19 @@
         <v>41786</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33180</v>
+        <v>32457</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49769</v>
+        <v>49467</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.5963875873200573</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4735549011027607</v>
+        <v>0.4632282395675024</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7103212396827838</v>
+        <v>0.706011122431104</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>67</v>
@@ -1530,19 +1530,19 @@
         <v>71019</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>60031</v>
+        <v>60656</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>81274</v>
+        <v>80291</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.6484627287109522</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5481314502878527</v>
+        <v>0.5538443602643528</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7420997305491353</v>
+        <v>0.7331226516338802</v>
       </c>
     </row>
     <row r="16">
@@ -1563,19 +1563,19 @@
         <v>5796</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2153</v>
+        <v>2191</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12712</v>
+        <v>12627</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06822778267561835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02534764895515325</v>
+        <v>0.0257875811341115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1496342229809818</v>
+        <v>0.1486384931936256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8028</v>
+        <v>7967</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0383258972464172</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.121151885547555</v>
+        <v>0.1202330291739337</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1605,19 +1605,19 @@
         <v>8336</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3651</v>
+        <v>3238</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15925</v>
+        <v>16206</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05512476412707572</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02414611568762785</v>
+        <v>0.02141215452981437</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1053137205372425</v>
+        <v>0.1071719271367496</v>
       </c>
     </row>
     <row r="17">
@@ -1634,19 +1634,19 @@
         <v>10438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5661</v>
+        <v>5682</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17806</v>
+        <v>18174</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1228712956502558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06663851575423468</v>
+        <v>0.06688922959652228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2095974765263209</v>
+        <v>0.2139305322133593</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1655,19 +1655,19 @@
         <v>13152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7261</v>
+        <v>7722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20099</v>
+        <v>21047</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1984783891203202</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1095826515474606</v>
+        <v>0.1165402434293176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.303322350343334</v>
+        <v>0.317633520831398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1676,19 +1676,19 @@
         <v>23590</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16067</v>
+        <v>16157</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33283</v>
+        <v>33563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1560023552446513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1062536906186909</v>
+        <v>0.1068445672765998</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2201037558764368</v>
+        <v>0.221953746679986</v>
       </c>
     </row>
     <row r="18">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6188</v>
+        <v>6319</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0217631341445107</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07283986061458644</v>
+        <v>0.07438127794356342</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1726,19 +1726,19 @@
         <v>5130</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2014</v>
+        <v>1907</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11540</v>
+        <v>10482</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07741405103582084</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0303954958768559</v>
+        <v>0.02877702072450438</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1741612351061884</v>
+        <v>0.158192348850694</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -1747,19 +1747,19 @@
         <v>6979</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3066</v>
+        <v>2901</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13432</v>
+        <v>13978</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04614938891753362</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02027261512483929</v>
+        <v>0.01918751189116929</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08882905337519163</v>
+        <v>0.09243468057349798</v>
       </c>
     </row>
     <row r="19">
@@ -1776,19 +1776,19 @@
         <v>9720</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4723</v>
+        <v>4983</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17996</v>
+        <v>17577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1144212933016421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05559225648537577</v>
+        <v>0.05865308093677143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.21183157477902</v>
+        <v>0.2069019761416467</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7394</v>
+        <v>8020</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0229680447605836</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.111586166210063</v>
+        <v>0.1210369874560936</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1818,19 +1818,19 @@
         <v>11242</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5786</v>
+        <v>5635</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20163</v>
+        <v>19559</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07434644200856151</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03826532334908246</v>
+        <v>0.03726612191589636</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1333365742238687</v>
+        <v>0.1293410589740727</v>
       </c>
     </row>
     <row r="20">
@@ -1847,19 +1847,19 @@
         <v>3114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8422</v>
+        <v>7425</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03665878165105712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01188366484975157</v>
+        <v>0.01183815601179288</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09913880692421001</v>
+        <v>0.0873963361196699</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1868,19 +1868,19 @@
         <v>3908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1072</v>
+        <v>1174</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9469</v>
+        <v>9271</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05897387179910459</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01617141473070846</v>
+        <v>0.01772158005757385</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1429020420497331</v>
+        <v>0.1399100543542493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1889,19 +1889,19 @@
         <v>7022</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3011</v>
+        <v>2959</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13231</v>
+        <v>14334</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0464372633730399</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01991266647800755</v>
+        <v>0.01956736090747387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08749372722491558</v>
+        <v>0.09479392556520153</v>
       </c>
     </row>
     <row r="21">
@@ -1918,19 +1918,19 @@
         <v>64625</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>55936</v>
+        <v>55149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>72296</v>
+        <v>71486</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7607112785752501</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6584297225858584</v>
+        <v>0.6491704004764617</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8510069790896705</v>
+        <v>0.8414731736561887</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>48</v>
@@ -1939,19 +1939,19 @@
         <v>48399</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40489</v>
+        <v>39956</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54843</v>
+        <v>55109</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7304023253661726</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6110285986746077</v>
+        <v>0.6029860228449436</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8276517204719565</v>
+        <v>0.8316743524573414</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>112</v>
@@ -1960,19 +1960,19 @@
         <v>113024</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>101195</v>
+        <v>101335</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>122596</v>
+        <v>123327</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7474298827573923</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6692056840590391</v>
+        <v>0.6701300249986412</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8107290368990115</v>
+        <v>0.8155602068745459</v>
       </c>
     </row>
     <row r="22">
@@ -1993,19 +1993,19 @@
         <v>20572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12240</v>
+        <v>13073</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29853</v>
+        <v>30341</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1638549059411722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09749006647930285</v>
+        <v>0.1041250999498065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2377796774320894</v>
+        <v>0.2416660525213782</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6202</v>
+        <v>6257</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03499566045812968</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.105571344146722</v>
+        <v>0.1065002313664911</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2035,19 +2035,19 @@
         <v>22628</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14497</v>
+        <v>14693</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33394</v>
+        <v>32402</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1227792162600229</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07866320886550894</v>
+        <v>0.07972530071951681</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1811948394130971</v>
+        <v>0.1758137077243858</v>
       </c>
     </row>
     <row r="23">
@@ -2064,19 +2064,19 @@
         <v>26822</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17148</v>
+        <v>18694</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36544</v>
+        <v>37284</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2136355826989388</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1365839493204283</v>
+        <v>0.1488930187808841</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2910728313524953</v>
+        <v>0.2969685713500361</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -2085,19 +2085,19 @@
         <v>8960</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4010</v>
+        <v>4819</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14957</v>
+        <v>15825</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1525217120623202</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0682652480941103</v>
+        <v>0.08202956178056717</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2545920586106752</v>
+        <v>0.2693833983681247</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>34</v>
@@ -2106,19 +2106,19 @@
         <v>35782</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26092</v>
+        <v>26154</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>47714</v>
+        <v>48341</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1941546802920254</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1415732025210723</v>
+        <v>0.1419127859584316</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2588933527915928</v>
+        <v>0.2622961773767695</v>
       </c>
     </row>
     <row r="24">
@@ -2135,19 +2135,19 @@
         <v>3859</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10413</v>
+        <v>11541</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03073990023263826</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00864007336996666</v>
+        <v>0.008574180642808706</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0829364130496659</v>
+        <v>0.09192273273537233</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7063</v>
+        <v>7829</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03311509846332807</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.120221417507772</v>
+        <v>0.1332731507750118</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -2177,19 +2177,19 @@
         <v>5805</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1881</v>
+        <v>1922</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13162</v>
+        <v>12517</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03149702794271684</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01020693873229627</v>
+        <v>0.01042795044774118</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07141626020331876</v>
+        <v>0.06791496667371787</v>
       </c>
     </row>
     <row r="25">
@@ -2206,19 +2206,19 @@
         <v>10911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5773</v>
+        <v>5473</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19167</v>
+        <v>19604</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08690618330560315</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04598120076380301</v>
+        <v>0.04359173081092877</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.152664510309158</v>
+        <v>0.1561483067414662</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2227,19 +2227,19 @@
         <v>4699</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10639</v>
+        <v>11791</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07998676148254681</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02102213763951981</v>
+        <v>0.02112335739558757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1810930154531971</v>
+        <v>0.2007165018176294</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2248,19 +2248,19 @@
         <v>15610</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9655</v>
+        <v>8917</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25145</v>
+        <v>25163</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08470052066563187</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05238580242479861</v>
+        <v>0.04838214395623913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1364369242384754</v>
+        <v>0.1365344532045756</v>
       </c>
     </row>
     <row r="26">
@@ -2290,19 +2290,19 @@
         <v>6928</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2921</v>
+        <v>2782</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12720</v>
+        <v>12812</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1179268698100473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04972448272734291</v>
+        <v>0.04735208195868708</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2165265213758489</v>
+        <v>0.2180827562487943</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2311,19 +2311,19 @@
         <v>6928</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2878</v>
+        <v>2896</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12998</v>
+        <v>13110</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03759084178421832</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01561413118780771</v>
+        <v>0.01571593895664831</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07052877882117742</v>
+        <v>0.07113621737327511</v>
       </c>
     </row>
     <row r="27">
@@ -2340,19 +2340,19 @@
         <v>84285</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>73026</v>
+        <v>73158</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>95000</v>
+        <v>94865</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.671328047833724</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5816519100106765</v>
+        <v>0.5826978471968223</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7566688694735939</v>
+        <v>0.7555957271566824</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>40</v>
@@ -2361,19 +2361,19 @@
         <v>40649</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>32774</v>
+        <v>33395</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46942</v>
+        <v>47449</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6919375143871238</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5578773035738027</v>
+        <v>0.5684577873140875</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7990559137555693</v>
+        <v>0.8076776655300052</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>118</v>
@@ -2382,19 +2382,19 @@
         <v>124935</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>112666</v>
+        <v>111665</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>137462</v>
+        <v>137198</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.677897604014719</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6113271718449643</v>
+        <v>0.6058921483849108</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7458677282428769</v>
+        <v>0.7444336520371927</v>
       </c>
     </row>
     <row r="28">
@@ -2415,19 +2415,19 @@
         <v>43175</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>32984</v>
+        <v>33426</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54191</v>
+        <v>53696</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.336981500448994</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2574373407202271</v>
+        <v>0.2608882824943631</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4229588665881825</v>
+        <v>0.4190936777466741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3974</v>
+        <v>4915</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05556329095762135</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2278898538543499</v>
+        <v>0.2818569660690923</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>46</v>
@@ -2457,19 +2457,19 @@
         <v>44144</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>34345</v>
+        <v>34654</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>55441</v>
+        <v>55780</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3032664783201237</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2359440591144312</v>
+        <v>0.2380663369874585</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3808705263904649</v>
+        <v>0.3832051401616358</v>
       </c>
     </row>
     <row r="29">
@@ -2486,19 +2486,19 @@
         <v>24218</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16449</v>
+        <v>15877</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33575</v>
+        <v>32864</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1890183534379632</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.128385752044915</v>
+        <v>0.1239162490182759</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2620479961527101</v>
+        <v>0.2565036560442423</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2507,19 +2507,19 @@
         <v>5123</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1986</v>
+        <v>1956</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9308</v>
+        <v>9583</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2937805151942972</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1139105090696815</v>
+        <v>0.1121900479911434</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5337613559055708</v>
+        <v>0.549491678441231</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -2528,19 +2528,19 @@
         <v>29341</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20554</v>
+        <v>20767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39543</v>
+        <v>39475</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2015692775884182</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1412024782573779</v>
+        <v>0.1426687150979494</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2716562279146263</v>
+        <v>0.2711891048841966</v>
       </c>
     </row>
     <row r="30">
@@ -2557,19 +2557,19 @@
         <v>4805</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1835</v>
+        <v>1802</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10480</v>
+        <v>10422</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03750243881203352</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01432506487220155</v>
+        <v>0.01406453293973979</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0817983230512899</v>
+        <v>0.08134377972086165</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -2591,19 +2591,19 @@
         <v>4805</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1716</v>
+        <v>1759</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9971</v>
+        <v>11075</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03300949730437647</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01178770225567142</v>
+        <v>0.01208631440317957</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06850167004264648</v>
+        <v>0.07608441342870996</v>
       </c>
     </row>
     <row r="31">
@@ -2620,7 +2620,7 @@
         <v>6649</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2895</v>
+        <v>2804</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>12701</v>
@@ -2629,10 +2629,10 @@
         <v>0.05189689919981641</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0225959968523801</v>
+        <v>0.02188678685525867</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09913115295319572</v>
+        <v>0.09912854950711138</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6102</v>
+        <v>5147</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07409259875108716</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3499099579608137</v>
+        <v>0.2951593140147834</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -2662,19 +2662,19 @@
         <v>7941</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3605</v>
+        <v>3850</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14203</v>
+        <v>15300</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0545560323912661</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02476599307556605</v>
+        <v>0.0264475651072882</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09757581230936785</v>
+        <v>0.1051078599435869</v>
       </c>
     </row>
     <row r="32">
@@ -2691,19 +2691,19 @@
         <v>5929</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2111</v>
+        <v>2858</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11755</v>
+        <v>12750</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04627784330938715</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01647477649459274</v>
+        <v>0.02230346195936504</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09174503910266817</v>
+        <v>0.09951018023918519</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4741</v>
+        <v>4493</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04980719634306449</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2718901902581863</v>
+        <v>0.2576274298728217</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2733,19 +2733,19 @@
         <v>6798</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2895</v>
+        <v>2927</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>13517</v>
+        <v>12948</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04670067385701265</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01989144035247374</v>
+        <v>0.02011021084481595</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09285894174458226</v>
+        <v>0.08894869626489316</v>
       </c>
     </row>
     <row r="33">
@@ -2762,19 +2762,19 @@
         <v>66099</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>54442</v>
+        <v>54853</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>77627</v>
+        <v>77017</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.515895653309328</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4249148069425829</v>
+        <v>0.4281271979028161</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6058751386595213</v>
+        <v>0.6011167135785922</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>10</v>
@@ -2783,19 +2783,19 @@
         <v>10478</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>6334</v>
+        <v>5785</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>14516</v>
+        <v>14242</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.600848997505017</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.363192808399772</v>
+        <v>0.331729227452208</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8323897788078745</v>
+        <v>0.8166897186006997</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>74</v>
@@ -2804,19 +2804,19 @@
         <v>76577</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>65679</v>
+        <v>64160</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>87313</v>
+        <v>88453</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.5260734022355821</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4512078681944023</v>
+        <v>0.4407697933907445</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5998288352270806</v>
+        <v>0.6076587395966946</v>
       </c>
     </row>
     <row r="34">
@@ -2837,19 +2837,19 @@
         <v>47067</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>37120</v>
+        <v>36717</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>58840</v>
+        <v>57964</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3861076729418266</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3045116676081107</v>
+        <v>0.3012057613957882</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4826912271196188</v>
+        <v>0.4755008396681385</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2858,19 +2858,19 @@
         <v>3901</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>957</v>
+        <v>966</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7923</v>
+        <v>7790</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2880159117072821</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07069041873130509</v>
+        <v>0.07135091759755235</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5850521033572297</v>
+        <v>0.5752109616264836</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>55</v>
@@ -2879,19 +2879,19 @@
         <v>50967</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>40386</v>
+        <v>41366</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>61589</v>
+        <v>62335</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.37629955134007</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2981800116131411</v>
+        <v>0.3054117376819414</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4547223914806244</v>
+        <v>0.4602277659816069</v>
       </c>
     </row>
     <row r="35">
@@ -2908,19 +2908,19 @@
         <v>26818</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18661</v>
+        <v>18274</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>35400</v>
+        <v>35977</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2200036552054496</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1530845807398471</v>
+        <v>0.1499101770635902</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2904002818630491</v>
+        <v>0.2951352292020302</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
@@ -2942,19 +2942,19 @@
         <v>26818</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>18837</v>
+        <v>18593</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>36303</v>
+        <v>36195</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1980056548032908</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.139078634444267</v>
+        <v>0.1372738441178579</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2680300850172138</v>
+        <v>0.2672338922738501</v>
       </c>
     </row>
     <row r="36">
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6240</v>
+        <v>6280</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01441359441816558</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05118642916970526</v>
+        <v>0.05151484717981319</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4597</v>
+        <v>5291</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08316767914786054</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3394430719476654</v>
+        <v>0.3907018540654899</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -3013,19 +3013,19 @@
         <v>2883</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8108</v>
+        <v>8156</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02128826376000672</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.006178482943356016</v>
+        <v>0.006221456471791629</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05986453185295298</v>
+        <v>0.06021586595336313</v>
       </c>
     </row>
     <row r="37">
@@ -3042,19 +3042,19 @@
         <v>6582</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2764</v>
+        <v>2803</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13293</v>
+        <v>12720</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0539927632888401</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02267688055961194</v>
+        <v>0.02299827244290335</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1090446183086212</v>
+        <v>0.1043478670836886</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4705</v>
+        <v>4550</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06619817609707676</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3473997600556664</v>
+        <v>0.3359976930369244</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8</v>
@@ -3084,19 +3084,19 @@
         <v>7478</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3664</v>
+        <v>3631</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15064</v>
+        <v>14420</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05521317335708816</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02705497741751072</v>
+        <v>0.02681120827329941</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1112198776456364</v>
+        <v>0.1064674097154143</v>
       </c>
     </row>
     <row r="38">
@@ -3113,19 +3113,19 @@
         <v>5521</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2609</v>
+        <v>2554</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>10993</v>
+        <v>11913</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04528998038755475</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.0214017461323351</v>
+        <v>0.02095221764801469</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09017991717320939</v>
+        <v>0.09772592420976019</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3147,19 +3147,19 @@
         <v>5521</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1931</v>
+        <v>1918</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11118</v>
+        <v>10859</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04076146923237046</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0142532473332956</v>
+        <v>0.01415827927295312</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0820841159809864</v>
+        <v>0.08017490923778892</v>
       </c>
     </row>
     <row r="39">
@@ -3176,19 +3176,19 @@
         <v>55059</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>45018</v>
+        <v>44453</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>66576</v>
+        <v>66221</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4516764164422691</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3693032976012329</v>
+        <v>0.3646715222350251</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5461491273561458</v>
+        <v>0.5432423154544557</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>8</v>
@@ -3197,19 +3197,19 @@
         <v>7620</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3820</v>
+        <v>3979</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>10782</v>
+        <v>10719</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.5626182330477806</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2820370723838011</v>
+        <v>0.2938337276246827</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.796132939158501</v>
+        <v>0.7914995389849353</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>63</v>
@@ -3218,19 +3218,19 @@
         <v>62679</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>51283</v>
+        <v>51735</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>73820</v>
+        <v>74734</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.4627694054384075</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3786296143420756</v>
+        <v>0.3819661242113641</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5450277495111191</v>
+        <v>0.55177616338061</v>
       </c>
     </row>
     <row r="40">
@@ -3251,19 +3251,19 @@
         <v>48529</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>38190</v>
+        <v>39032</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>59253</v>
+        <v>59504</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.4283298052389061</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3370734896157046</v>
+        <v>0.3445014168629665</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5229829601075368</v>
+        <v>0.5251944870753192</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3272,19 +3272,19 @@
         <v>3666</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>990</v>
+        <v>1058</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6798</v>
+        <v>7033</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.39701400614508</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1071652830397672</v>
+        <v>0.1145619901978495</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.7361475896555525</v>
+        <v>0.7616512623363833</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>55</v>
@@ -3293,19 +3293,19 @@
         <v>52195</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>42545</v>
+        <v>40829</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>63416</v>
+        <v>63092</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.4259697848180247</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3472149083211197</v>
+        <v>0.3332106373711254</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5175441490912416</v>
+        <v>0.5148993794769469</v>
       </c>
     </row>
     <row r="41">
@@ -3322,19 +3322,19 @@
         <v>24864</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>17645</v>
+        <v>17418</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>34903</v>
+        <v>35812</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.219453348776565</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1557406130379951</v>
+        <v>0.1537331882266005</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3080601645177223</v>
+        <v>0.3160830029368804</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3356,19 +3356,19 @@
         <v>24864</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>16837</v>
+        <v>16385</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>34920</v>
+        <v>34975</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2029149113254953</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.137405104300523</v>
+        <v>0.1337204627551978</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.284985914904642</v>
+        <v>0.2854325714717724</v>
       </c>
     </row>
     <row r="42">
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4923</v>
+        <v>4173</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.008886016052437825</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04345003281323007</v>
+        <v>0.03683504128753097</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4145</v>
+        <v>4969</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.008216348346331998</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03382973560698298</v>
+        <v>0.04055122951603843</v>
       </c>
     </row>
     <row r="43">
@@ -3448,19 +3448,19 @@
         <v>8139</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3775</v>
+        <v>3948</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>14885</v>
+        <v>14727</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07183308875830588</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03332124111872609</v>
+        <v>0.03484675010770348</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.131377333234107</v>
+        <v>0.1299802050465725</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>5183</v>
+        <v>5179</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1276745526719915</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.5613260989468167</v>
+        <v>0.5608732214961952</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>10</v>
@@ -3490,19 +3490,19 @@
         <v>9318</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>5050</v>
+        <v>4637</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>16980</v>
+        <v>16022</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07604141168097378</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04121221781000347</v>
+        <v>0.03784405125246362</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1385712241161345</v>
+        <v>0.1307604198535775</v>
       </c>
     </row>
     <row r="44">
@@ -3519,19 +3519,19 @@
         <v>3440</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7913</v>
+        <v>8173</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03036213641167058</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.007438177204594424</v>
+        <v>0.007647907715837734</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06983984877409558</v>
+        <v>0.07213970929494329</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>3440</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>8387</v>
+        <v>8241</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02807398589255268</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006994618023052248</v>
+        <v>0.006934135048053507</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06844416712327997</v>
+        <v>0.06725529585608288</v>
       </c>
     </row>
     <row r="45">
@@ -3582,19 +3582,19 @@
         <v>51420</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>40762</v>
+        <v>41688</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>61347</v>
+        <v>62075</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4538451925256679</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3597768631506006</v>
+        <v>0.3679480836369425</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5414603792121927</v>
+        <v>0.547890875579934</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>6735</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>3655</v>
+        <v>2532</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>9234</v>
@@ -3612,7 +3612,7 @@
         <v>0.7293816412463543</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3958395092706081</v>
+        <v>0.2741589511205933</v>
       </c>
       <c r="P45" s="6" t="n">
         <v>1</v>
@@ -3624,19 +3624,19 @@
         <v>58155</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>46999</v>
+        <v>46883</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>69333</v>
+        <v>68885</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.4746101630675236</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3835579967678377</v>
+        <v>0.38261396400977</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.5658303560659761</v>
+        <v>0.562173069155699</v>
       </c>
     </row>
     <row r="46">
@@ -3657,19 +3657,19 @@
         <v>169499</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>148579</v>
+        <v>148843</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>191363</v>
+        <v>193057</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2713851831828314</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2378911544092303</v>
+        <v>0.2383141626000216</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3063928020560311</v>
+        <v>0.3091056365479292</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -3678,19 +3678,19 @@
         <v>21051</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08395866295417657</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>196</v>
@@ -3699,19 +3699,19 @@
         <v>190550</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>166565</v>
+        <v>165782</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>214749</v>
+        <v>215837</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2176959287262716</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1902942164948042</v>
+        <v>0.1893999692709256</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2453429966235182</v>
+        <v>0.2465853388569809</v>
       </c>
     </row>
     <row r="47">
@@ -3728,19 +3728,19 @@
         <v>117800</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>100231</v>
+        <v>97800</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>137732</v>
+        <v>136046</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1886103771109658</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.160481310139349</v>
+        <v>0.1565875036098018</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2205235608698266</v>
+        <v>0.2178246520846337</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>36</v>
@@ -3749,19 +3749,19 @@
         <v>36399</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>26572</v>
+        <v>26780</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>49047</v>
+        <v>47427</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1451686946557249</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1059772385465141</v>
+        <v>0.106804958988496</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1956110983325092</v>
+        <v>0.189153360898776</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>156</v>
@@ -3770,19 +3770,19 @@
         <v>154199</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>133375</v>
+        <v>134189</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>180645</v>
+        <v>176456</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.176166292140946</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1523758334189459</v>
+        <v>0.1533054900659898</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2063795779975149</v>
+        <v>0.2015938963015177</v>
       </c>
     </row>
     <row r="48">
@@ -3799,19 +3799,19 @@
         <v>14314</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>7665</v>
+        <v>8640</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>22910</v>
+        <v>23885</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02291801414162394</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01227294191809591</v>
+        <v>0.01383412156540324</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0366819330260969</v>
+        <v>0.03824169442862028</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>26</v>
@@ -3820,19 +3820,19 @@
         <v>27487</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>18562</v>
+        <v>18208</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>38605</v>
+        <v>38586</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1096237948179564</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.07402885006230274</v>
+        <v>0.07261871591919442</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1539691763885337</v>
+        <v>0.1538926322410524</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>40</v>
@@ -3841,19 +3841,19 @@
         <v>41800</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>30578</v>
+        <v>30775</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>57125</v>
+        <v>55531</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.04775531419877228</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03493428982251258</v>
+        <v>0.03515896717528328</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.06526313921903636</v>
+        <v>0.06344152492237816</v>
       </c>
     </row>
     <row r="49">
@@ -3870,19 +3870,19 @@
         <v>47577</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>35696</v>
+        <v>36194</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>61124</v>
+        <v>63090</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.07617606090451684</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05715365578875142</v>
+        <v>0.05794984660646149</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.09786552581809721</v>
+        <v>0.1010134983900537</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>19</v>
@@ -3891,19 +3891,19 @@
         <v>20568</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08202930017612507</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>67</v>
@@ -3912,19 +3912,19 @@
         <v>68145</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>53216</v>
+        <v>53378</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>84848</v>
+        <v>84834</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.07785275026664724</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06079764237681053</v>
+        <v>0.06098240817162693</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09693515835949419</v>
+        <v>0.09692007762438039</v>
       </c>
     </row>
     <row r="50">
@@ -3941,19 +3941,19 @@
         <v>19983</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>12690</v>
+        <v>12284</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>29489</v>
+        <v>29530</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03199439751305172</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02031758320505778</v>
+        <v>0.01966821497227282</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04721505152970952</v>
+        <v>0.04728025304612966</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>13</v>
@@ -3962,19 +3962,19 @@
         <v>12643</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.0504253938110286</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>34</v>
@@ -3983,19 +3983,19 @@
         <v>32626</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>23253</v>
+        <v>23491</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>45204</v>
+        <v>45053</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.03727404763365779</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02656607538460742</v>
+        <v>0.02683798294386944</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0516434544043517</v>
+        <v>0.05147121480998889</v>
       </c>
     </row>
     <row r="51">
@@ -4012,19 +4012,19 @@
         <v>358950</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>334090</v>
+        <v>334623</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>382443</v>
+        <v>385015</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.5747164627178492</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5349144469809471</v>
+        <v>0.5357665101311883</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6123322106212458</v>
+        <v>0.6164507688180445</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>161</v>
@@ -4033,19 +4033,19 @@
         <v>165844</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.6614316010896456</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>509</v>
@@ -4054,19 +4054,19 @@
         <v>524794</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>496831</v>
+        <v>495846</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>554047</v>
+        <v>552525</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.5995564433331826</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5676105368318644</v>
+        <v>0.5664853890876614</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.632976930546761</v>
+        <v>0.6312384192065079</v>
       </c>
     </row>
     <row r="52">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6170</v>
+        <v>5324</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1028980658140699</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.32089418836998</v>
+        <v>0.2768816177516071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4367,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6718</v>
+        <v>6213</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05494111519940986</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1865489198055917</v>
+        <v>0.1725054719999833</v>
       </c>
     </row>
     <row r="5">
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4270</v>
+        <v>4531</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05883228580885935</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2543845690306547</v>
+        <v>0.2699264293551266</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4087</v>
+        <v>4112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05083640820081382</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2125683231320972</v>
+        <v>0.2138316296567105</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6118</v>
+        <v>6588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05456298852607269</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.169870880263251</v>
+        <v>0.1829253576536774</v>
       </c>
     </row>
     <row r="6">
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4459</v>
+        <v>5184</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05158802413492054</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2319026032264269</v>
+        <v>0.2695727014919008</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5036</v>
+        <v>5633</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02754477020032628</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1398431342798931</v>
+        <v>0.1564204158221283</v>
       </c>
     </row>
     <row r="7">
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6862</v>
+        <v>6033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1351238409207036</v>
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.408800120986705</v>
+        <v>0.359403027556734</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5109</v>
+        <v>4881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05387421875995359</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2657057281929984</v>
+        <v>0.25383344358583</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -4569,19 +4569,19 @@
         <v>3304</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8685</v>
+        <v>9198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09174163722497675</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02675080288491515</v>
+        <v>0.02652918310531576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2411684731377175</v>
+        <v>0.2553994020838248</v>
       </c>
     </row>
     <row r="8">
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5988</v>
+        <v>5815</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1120030882854498</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3567350675695515</v>
+        <v>0.3464141898725626</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7710</v>
+        <v>6404</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09308060024175904</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4009364638305171</v>
+        <v>0.3330596503387114</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -4640,19 +4640,19 @@
         <v>3670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8966</v>
+        <v>9831</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1018996661536247</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02525843041559983</v>
+        <v>0.02573268067959741</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2489679429063102</v>
+        <v>0.2729658429514373</v>
       </c>
     </row>
     <row r="9">
@@ -4669,7 +4669,7 @@
         <v>14846</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10791</v>
+        <v>11356</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>16785</v>
@@ -4678,7 +4678,7 @@
         <v>0.8844782060436595</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6429221048169933</v>
+        <v>0.6765508323346232</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>1</v>
@@ -4690,19 +4690,19 @@
         <v>14245</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9757</v>
+        <v>8883</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17316</v>
+        <v>17305</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7408032830902421</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5074127631777742</v>
+        <v>0.4619755521134071</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9005335096323573</v>
+        <v>0.8999257455159645</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>28</v>
@@ -4711,19 +4711,19 @@
         <v>29091</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23682</v>
+        <v>23376</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33088</v>
+        <v>33094</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8077648059345324</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6575803466203199</v>
+        <v>0.6490848917210263</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9187410236000415</v>
+        <v>0.9189143171423138</v>
       </c>
     </row>
     <row r="10">
@@ -4744,19 +4744,19 @@
         <v>4069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1209</v>
+        <v>941</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9843</v>
+        <v>9693</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05594944299745017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01661598752908621</v>
+        <v>0.01293952806512181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.135326728462143</v>
+        <v>0.1332624771798279</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4765,19 +4765,19 @@
         <v>5970</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2905</v>
+        <v>2005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12231</v>
+        <v>11686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07204275483612504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03505966606945823</v>
+        <v>0.02420188257428772</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1476054966452834</v>
+        <v>0.1410290311617262</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -4786,19 +4786,19 @@
         <v>10039</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4831</v>
+        <v>4861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16643</v>
+        <v>17197</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06451988101898073</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03104984397847203</v>
+        <v>0.0312388961317633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1069596503234784</v>
+        <v>0.1105205093994037</v>
       </c>
     </row>
     <row r="11">
@@ -4815,19 +4815,19 @@
         <v>7909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3740</v>
+        <v>3045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15587</v>
+        <v>15613</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1087316279800148</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05142509634733467</v>
+        <v>0.04186829048485954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2142946771342938</v>
+        <v>0.214661325603469</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -4836,19 +4836,19 @@
         <v>3865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9048</v>
+        <v>8992</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04664568390546601</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01178680624021867</v>
+        <v>0.01167186524408187</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1091940497499856</v>
+        <v>0.1085201203412041</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -4857,19 +4857,19 @@
         <v>11774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5986</v>
+        <v>5846</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20602</v>
+        <v>20157</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07566797141055713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03846850306048626</v>
+        <v>0.03757280735185688</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1324068335967956</v>
+        <v>0.129545044706798</v>
       </c>
     </row>
     <row r="12">
@@ -4886,19 +4886,19 @@
         <v>2939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8368</v>
+        <v>9568</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04040081511106101</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01304899078660612</v>
+        <v>0.01300067972385461</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1150481861857598</v>
+        <v>0.1315397251938659</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4907,19 +4907,19 @@
         <v>11997</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6217</v>
+        <v>6170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18992</v>
+        <v>20109</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1447845193687013</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07502736516843821</v>
+        <v>0.07446051993770518</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2291994738424907</v>
+        <v>0.2426816482878236</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -4928,19 +4928,19 @@
         <v>14936</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8353</v>
+        <v>8755</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23759</v>
+        <v>24405</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09598999878971053</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05368543282535824</v>
+        <v>0.05626459442168192</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.152697603858361</v>
+        <v>0.1568473568467681</v>
       </c>
     </row>
     <row r="13">
@@ -4957,19 +4957,19 @@
         <v>4798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1819</v>
+        <v>1885</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10334</v>
+        <v>11195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06597188676048345</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02500624317424006</v>
+        <v>0.02591330125649855</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1420767175425233</v>
+        <v>0.1539170062243077</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -4978,19 +4978,19 @@
         <v>5959</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2037</v>
+        <v>2120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11753</v>
+        <v>12526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07191045393756407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0245774119383334</v>
+        <v>0.02558247933517038</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1418379052872577</v>
+        <v>0.1511632959595156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -4999,19 +4999,19 @@
         <v>10757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5814</v>
+        <v>5535</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18573</v>
+        <v>18069</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06913445034205486</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03736719045272457</v>
+        <v>0.03557387546626224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1193684762724222</v>
+        <v>0.1161286328865711</v>
       </c>
     </row>
     <row r="14">
@@ -5028,19 +5028,19 @@
         <v>4690</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1795</v>
+        <v>1826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9910</v>
+        <v>10944</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06447959164318225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02467725443667609</v>
+        <v>0.02510882245953415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1362422037791584</v>
+        <v>0.1504615554512737</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -5062,19 +5062,19 @@
         <v>4690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1812</v>
+        <v>1798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10428</v>
+        <v>10264</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03014120627097682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01164549027983837</v>
+        <v>0.01155364442574666</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06702062974352163</v>
+        <v>0.06596616684617002</v>
       </c>
     </row>
     <row r="15">
@@ -5091,19 +5091,19 @@
         <v>54889</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46339</v>
+        <v>45315</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>61276</v>
+        <v>61404</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7546451709458495</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6370896927771175</v>
+        <v>0.6230123365932694</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.842452401532731</v>
+        <v>0.8442215574601318</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>57</v>
@@ -5112,19 +5112,19 @@
         <v>61161</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>52835</v>
+        <v>52335</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68977</v>
+        <v>68635</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.738097278212649</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.6376212090398469</v>
+        <v>0.6315809710877051</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8324162150394171</v>
+        <v>0.8282941020056859</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -5133,19 +5133,19 @@
         <v>116049</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>105123</v>
+        <v>104058</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>125975</v>
+        <v>126912</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.745832647428098</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.675612696936958</v>
+        <v>0.6687682117489603</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8096236419427418</v>
+        <v>0.8156485697507648</v>
       </c>
     </row>
     <row r="16">
@@ -5166,19 +5166,19 @@
         <v>7166</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3140</v>
+        <v>3150</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13667</v>
+        <v>13857</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06377748218395458</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02794823780606203</v>
+        <v>0.0280324417345932</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1216371735880217</v>
+        <v>0.1233239120020372</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5187,19 +5187,19 @@
         <v>2954</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8117</v>
+        <v>7856</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02380569522556553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007820088031175419</v>
+        <v>0.007709414319951267</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06540945802755242</v>
+        <v>0.06330282184181554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -5208,19 +5208,19 @@
         <v>10120</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4809</v>
+        <v>4955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17815</v>
+        <v>17878</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04279977688292524</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02033688131810627</v>
+        <v>0.02095432455061004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07534058824051562</v>
+        <v>0.07561063709961449</v>
       </c>
     </row>
     <row r="17">
@@ -5237,19 +5237,19 @@
         <v>7784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3746</v>
+        <v>3756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14461</v>
+        <v>14677</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06927968597219081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0333354507326196</v>
+        <v>0.03343165539609602</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1286988809691227</v>
+        <v>0.1306250331337521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -5258,19 +5258,19 @@
         <v>9655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4856</v>
+        <v>4693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18246</v>
+        <v>17461</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07780315065006121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0391306045104509</v>
+        <v>0.03781919535997936</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1470347877220429</v>
+        <v>0.14070956900892</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -5279,19 +5279,19 @@
         <v>17439</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10859</v>
+        <v>10619</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27828</v>
+        <v>26457</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07375290930699525</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04592303719329603</v>
+        <v>0.04490745731492553</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1176868746883534</v>
+        <v>0.1118900141761963</v>
       </c>
     </row>
     <row r="18">
@@ -5308,19 +5308,19 @@
         <v>3810</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>946</v>
+        <v>1039</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9410</v>
+        <v>9652</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03391301717552221</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008419984459485717</v>
+        <v>0.009248962569854375</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08374936451418896</v>
+        <v>0.08590260287404194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6972</v>
+        <v>6827</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01567206431973439</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0561867098218183</v>
+        <v>0.05501346733721574</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -5350,19 +5350,19 @@
         <v>5755</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2022</v>
+        <v>1943</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13631</v>
+        <v>11644</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02433993169357887</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008553212302494423</v>
+        <v>0.008216897518179179</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05764854011116841</v>
+        <v>0.04924378360101368</v>
       </c>
     </row>
     <row r="19">
@@ -5379,19 +5379,19 @@
         <v>13559</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7279</v>
+        <v>7455</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21698</v>
+        <v>22695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1206751014315502</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06477886545222063</v>
+        <v>0.06635179496490606</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1931134462893459</v>
+        <v>0.2019858311924949</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5400,19 +5400,19 @@
         <v>10667</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4993</v>
+        <v>5186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19965</v>
+        <v>19483</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08595949399758854</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04023514732805623</v>
+        <v>0.04178802130331275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1608875963059868</v>
+        <v>0.1570024369805445</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -5421,19 +5421,19 @@
         <v>24226</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15189</v>
+        <v>16082</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34797</v>
+        <v>36261</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1024559064064694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06423630154674688</v>
+        <v>0.06801254558141778</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1471617385325849</v>
+        <v>0.1533517768615927</v>
       </c>
     </row>
     <row r="20">
@@ -5450,19 +5450,19 @@
         <v>2875</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7841</v>
+        <v>7663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0255889349301194</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008037179232958854</v>
+        <v>0.008002014329511019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06978143779947732</v>
+        <v>0.06819867825867511</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -5471,19 +5471,19 @@
         <v>5402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1946</v>
+        <v>2017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11821</v>
+        <v>11183</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04353269815890114</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01567873507169992</v>
+        <v>0.01625000171112861</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09525729642447957</v>
+        <v>0.09012019857237603</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -5492,19 +5492,19 @@
         <v>8277</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3914</v>
+        <v>3897</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15813</v>
+        <v>15783</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03500605149277609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01655237881028674</v>
+        <v>0.01648030614435717</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06687376368639544</v>
+        <v>0.06674982070443058</v>
       </c>
     </row>
     <row r="21">
@@ -5521,19 +5521,19 @@
         <v>91973</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82988</v>
+        <v>83207</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>99264</v>
+        <v>98869</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8185591508141346</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7385944067758514</v>
+        <v>0.7405432897420717</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.883449284957523</v>
+        <v>0.8799330692137953</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>96</v>
@@ -5542,19 +5542,19 @@
         <v>102248</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>92478</v>
+        <v>92925</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>110295</v>
+        <v>110609</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.8239572096103234</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.7452248995527976</v>
+        <v>0.7488277400707112</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8887982521992891</v>
+        <v>0.8913286338560307</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>184</v>
@@ -5563,19 +5563,19 @@
         <v>194221</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>181342</v>
+        <v>181583</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>205447</v>
+        <v>206111</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.8213921211474839</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.7669232036426906</v>
+        <v>0.7679425061767581</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8688678726357751</v>
+        <v>0.8716727524666908</v>
       </c>
     </row>
     <row r="22">
@@ -5596,19 +5596,19 @@
         <v>15683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9529</v>
+        <v>9182</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24708</v>
+        <v>24892</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09228870564610048</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0560762721811086</v>
+        <v>0.05403584675606641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1453970711775217</v>
+        <v>0.1464796302936156</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -5617,19 +5617,19 @@
         <v>8623</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4198</v>
+        <v>4082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16424</v>
+        <v>15392</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09415377546142206</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0458321141744094</v>
+        <v>0.04457498905391914</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1793313361923163</v>
+        <v>0.1680590474047414</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -5638,19 +5638,19 @@
         <v>24306</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15666</v>
+        <v>16216</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34966</v>
+        <v>34716</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0929418716721786</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05990282556245348</v>
+        <v>0.06200832114375848</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1337016350238298</v>
+        <v>0.1327485027556541</v>
       </c>
     </row>
     <row r="23">
@@ -5667,19 +5667,19 @@
         <v>12154</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6441</v>
+        <v>6656</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20214</v>
+        <v>21519</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07152500405822955</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03790482484316494</v>
+        <v>0.03916921137360455</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1189539368982763</v>
+        <v>0.1266305336984177</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -5688,19 +5688,19 @@
         <v>7479</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3151</v>
+        <v>3179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14409</v>
+        <v>14326</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08166129106889392</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03440018330910954</v>
+        <v>0.0347049367833053</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1573208779030439</v>
+        <v>0.1564205276387697</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -5709,19 +5709,19 @@
         <v>19634</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12890</v>
+        <v>12220</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31521</v>
+        <v>29564</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07507483273035427</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04928963564589089</v>
+        <v>0.04672663762687803</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1205300698833768</v>
+        <v>0.1130463273817661</v>
       </c>
     </row>
     <row r="24">
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6610</v>
+        <v>7111</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01201622557957942</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03889859541385871</v>
+        <v>0.04184576910157212</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -5759,19 +5759,19 @@
         <v>4209</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9911</v>
+        <v>9523</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04595944617063707</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01156750634395964</v>
+        <v>0.011505188311098</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1082113410245265</v>
+        <v>0.1039750106552981</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -5780,19 +5780,19 @@
         <v>6251</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2147</v>
+        <v>2113</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13822</v>
+        <v>12679</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02390347951700452</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008208093470143774</v>
+        <v>0.008078022812763144</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05285331864582606</v>
+        <v>0.04848326401500489</v>
       </c>
     </row>
     <row r="25">
@@ -5809,19 +5809,19 @@
         <v>16207</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9577</v>
+        <v>9534</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25717</v>
+        <v>25803</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09537444312110267</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05635587402936069</v>
+        <v>0.05610630850731127</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1513355382185914</v>
+        <v>0.1518427207449003</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -5830,19 +5830,19 @@
         <v>10773</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5259</v>
+        <v>5509</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19134</v>
+        <v>19264</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1176286930013027</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05741731126919104</v>
+        <v>0.06014602126101178</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.208920409015103</v>
+        <v>0.2103332696859533</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -5851,19 +5851,19 @@
         <v>26981</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17993</v>
+        <v>17955</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39356</v>
+        <v>39333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1031681030893186</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0688018796123501</v>
+        <v>0.0686555053492023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1504913474185888</v>
+        <v>0.1503998589310043</v>
       </c>
     </row>
     <row r="26">
@@ -5880,19 +5880,19 @@
         <v>5803</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2181</v>
+        <v>2118</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12855</v>
+        <v>12723</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03414798208711699</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01283356539479925</v>
+        <v>0.01246107729635794</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.075648345069546</v>
+        <v>0.07487311590757864</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -5901,19 +5901,19 @@
         <v>4151</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1081</v>
+        <v>1001</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9969</v>
+        <v>9414</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04531810451447565</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01180395531381911</v>
+        <v>0.01093359457079904</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1088448346782104</v>
+        <v>0.1027847040818288</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -5922,19 +5922,19 @@
         <v>9953</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5190</v>
+        <v>5049</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17742</v>
+        <v>18735</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03805987021953307</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01984552200191091</v>
+        <v>0.01930560987532575</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06784072635350023</v>
+        <v>0.0716380421133047</v>
       </c>
     </row>
     <row r="27">
@@ -5951,19 +5951,19 @@
         <v>135184</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>122707</v>
+        <v>123398</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>144482</v>
+        <v>145180</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7955109678843039</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7220878727009826</v>
+        <v>0.7261538910772265</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8502264287393912</v>
+        <v>0.8543363589713432</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>61</v>
@@ -5972,19 +5972,19 @@
         <v>72327</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>62656</v>
+        <v>64258</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>79124</v>
+        <v>79804</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7897081620200382</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6841160360421443</v>
+        <v>0.701607258063169</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8639207692846598</v>
+        <v>0.8713490329118573</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>181</v>
@@ -5993,19 +5993,19 @@
         <v>207511</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>193356</v>
+        <v>193425</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>219555</v>
+        <v>220401</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.793478767472647</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7393552035516018</v>
+        <v>0.7396169762089088</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8395333261462161</v>
+        <v>0.842769402755708</v>
       </c>
     </row>
     <row r="28">
@@ -6026,19 +6026,19 @@
         <v>28176</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19896</v>
+        <v>18186</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38055</v>
+        <v>38683</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2009098375843243</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1418726000330339</v>
+        <v>0.1296760559365447</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2713540938702644</v>
+        <v>0.2758351708306286</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -6047,19 +6047,19 @@
         <v>9201</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4276</v>
+        <v>4263</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16478</v>
+        <v>15826</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1777587986377636</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0826137710933615</v>
+        <v>0.08235408581226349</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3183571992797415</v>
+        <v>0.3057664182216656</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -6068,19 +6068,19 @@
         <v>37377</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27205</v>
+        <v>27088</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>48483</v>
+        <v>50668</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.194668779098029</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1416924674577156</v>
+        <v>0.1410849969382969</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2525163572751749</v>
+        <v>0.2638955938865131</v>
       </c>
     </row>
     <row r="29">
@@ -6097,19 +6097,19 @@
         <v>15992</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9432</v>
+        <v>8956</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26919</v>
+        <v>25495</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1140332782017177</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06725810555829925</v>
+        <v>0.06386175078014543</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1919508985441258</v>
+        <v>0.1817968971461671</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -6118,19 +6118,19 @@
         <v>9334</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4339</v>
+        <v>4319</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16495</v>
+        <v>16701</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1803272924719439</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08383814117953065</v>
+        <v>0.0834408727082087</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3186908088448923</v>
+        <v>0.3226609310361861</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -6139,19 +6139,19 @@
         <v>25326</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16457</v>
+        <v>16499</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36660</v>
+        <v>37460</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1319048225979248</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08571468519265647</v>
+        <v>0.08593156219541699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1909390372602023</v>
+        <v>0.1951024705220739</v>
       </c>
     </row>
     <row r="30">
@@ -6168,19 +6168,19 @@
         <v>2929</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0</v>
+        <v>941</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7978</v>
+        <v>8040</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0208868942742422</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0</v>
+        <v>0.006707981026613458</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05688690072484603</v>
+        <v>0.05732731687009125</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -6202,19 +6202,19 @@
         <v>2929</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8046</v>
+        <v>8379</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01525620404632141</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004871602975055506</v>
+        <v>0.004913170708069438</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0419043502242045</v>
+        <v>0.04364006889059447</v>
       </c>
     </row>
     <row r="31">
@@ -6231,19 +6231,19 @@
         <v>12032</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6361</v>
+        <v>6396</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22118</v>
+        <v>21772</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0857935016363751</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0453542077547897</v>
+        <v>0.04560447896100323</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1577108062422112</v>
+        <v>0.1552450887289327</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -6255,16 +6255,16 @@
         <v>915</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7167</v>
+        <v>8859</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05654822500868459</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01767779179915577</v>
+        <v>0.017669869049277</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1384578221508394</v>
+        <v>0.1711542093227672</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -6273,19 +6273,19 @@
         <v>14959</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8915</v>
+        <v>8088</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25082</v>
+        <v>24942</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07790955818560318</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04643128120895715</v>
+        <v>0.04212696238481277</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1306339179197696</v>
+        <v>0.129907103479519</v>
       </c>
     </row>
     <row r="32">
@@ -6302,19 +6302,19 @@
         <v>4056</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1086</v>
+        <v>1057</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9138</v>
+        <v>9497</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02892077999315939</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007744117698191228</v>
+        <v>0.00753671575435933</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.06515728249966528</v>
+        <v>0.06771788827870448</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -6326,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5860</v>
+        <v>5311</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02018001711997473</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1132117254618188</v>
+        <v>0.1026144280503754</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -6344,19 +6344,19 @@
         <v>5100</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1873</v>
+        <v>1639</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10587</v>
+        <v>10530</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02656444460655728</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0097535205891356</v>
+        <v>0.008538330458208411</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05513821928414225</v>
+        <v>0.05484536938723109</v>
       </c>
     </row>
     <row r="33">
@@ -6373,19 +6373,19 @@
         <v>92175</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>80058</v>
+        <v>80581</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>102543</v>
+        <v>104064</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.6572624176540081</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5708615740378936</v>
+        <v>0.5745905456477686</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.731190585811195</v>
+        <v>0.7420353793357974</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>33</v>
@@ -6394,19 +6394,19 @@
         <v>37455</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>30000</v>
+        <v>29819</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>43755</v>
+        <v>43417</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7236297497733568</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5796016902601266</v>
+        <v>0.5761080228693088</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8453352175164488</v>
+        <v>0.8388213232676791</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>118</v>
@@ -6415,19 +6415,19 @@
         <v>129630</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>116544</v>
+        <v>115307</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>141934</v>
+        <v>142898</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6751537270804379</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.6069946313382668</v>
+        <v>0.6005542986853647</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.7392349155501159</v>
+        <v>0.7442570593807892</v>
       </c>
     </row>
     <row r="34">
@@ -6448,19 +6448,19 @@
         <v>51381</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>39828</v>
+        <v>39610</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>63824</v>
+        <v>64416</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3161119943460905</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2450329532308293</v>
+        <v>0.2436936597150701</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.392668276717214</v>
+        <v>0.3963101567673761</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -6469,19 +6469,19 @@
         <v>4761</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1368</v>
+        <v>1114</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8251</v>
+        <v>8019</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.448210179337818</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1288110269769425</v>
+        <v>0.1048339567201354</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7766711246903034</v>
+        <v>0.754859421335442</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -6490,19 +6490,19 @@
         <v>56142</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>44160</v>
+        <v>44105</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>69569</v>
+        <v>69948</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3242154775132188</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2550212817618342</v>
+        <v>0.2547027087382244</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4017548566080242</v>
+        <v>0.4039406926012586</v>
       </c>
     </row>
     <row r="35">
@@ -6519,19 +6519,19 @@
         <v>25214</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16842</v>
+        <v>16383</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>35263</v>
+        <v>34776</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.155124694033451</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1036147005936346</v>
+        <v>0.1007964804667651</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2169520803058313</v>
+        <v>0.2139553983255696</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5891</v>
+        <v>6018</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1698907526745007</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5545740736063244</v>
+        <v>0.5665211573963861</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>26</v>
@@ -6561,19 +6561,19 @@
         <v>27019</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>18466</v>
+        <v>17658</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39221</v>
+        <v>37925</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1560305089592963</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1066403850899682</v>
+        <v>0.1019720378064389</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2264996991450703</v>
+        <v>0.2190111351767321</v>
       </c>
     </row>
     <row r="36">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5571</v>
+        <v>6234</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006758127774098257</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03427584690874902</v>
+        <v>0.03835128270538262</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5392</v>
+        <v>5485</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00634355451813613</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0311398862744499</v>
+        <v>0.03167307027320625</v>
       </c>
     </row>
     <row r="37">
@@ -6653,19 +6653,19 @@
         <v>6120</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2937</v>
+        <v>2121</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12175</v>
+        <v>11827</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03765444978570601</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01806842386626554</v>
+        <v>0.01304956126962536</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07490180228529331</v>
+        <v>0.0727651435411497</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -6690,16 +6690,16 @@
         <v>2133</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>13629</v>
+        <v>12934</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03534456036500687</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01231981324413784</v>
+        <v>0.01232029966367116</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07870434673735448</v>
+        <v>0.07469385644096663</v>
       </c>
     </row>
     <row r="38">
@@ -6716,19 +6716,19 @@
         <v>7998</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3084</v>
+        <v>3071</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>15960</v>
+        <v>15770</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04920488412923154</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01897597373807066</v>
+        <v>0.01889095510047913</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09818914396269791</v>
+        <v>0.09702174694572811</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -6750,19 +6750,19 @@
         <v>7998</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3108</v>
+        <v>3950</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>16109</v>
+        <v>15916</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04618644030801856</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01794706938221348</v>
+        <v>0.02281125904242082</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09302686695601653</v>
+        <v>0.09191069187352</v>
       </c>
     </row>
     <row r="39">
@@ -6779,19 +6779,19 @@
         <v>92726</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>79617</v>
+        <v>79796</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>105489</v>
+        <v>106746</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5704787563820978</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4898322732203783</v>
+        <v>0.4909295307346791</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6490034626151906</v>
+        <v>0.6567391246785842</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>7</v>
@@ -6800,19 +6800,19 @@
         <v>6798</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>3171</v>
+        <v>3014</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>9598</v>
+        <v>9577</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6399749489581028</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.298480342474311</v>
+        <v>0.2837115531303012</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.9034724431588467</v>
+        <v>0.9015696644795883</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>96</v>
@@ -6821,19 +6821,19 @@
         <v>99524</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>86773</v>
+        <v>86048</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>113889</v>
+        <v>112430</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5747419582327095</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5011086337610078</v>
+        <v>0.4969191561968453</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6576987496846064</v>
+        <v>0.64927216507459</v>
       </c>
     </row>
     <row r="40">
@@ -6854,19 +6854,19 @@
         <v>54300</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>43810</v>
+        <v>41993</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>68057</v>
+        <v>67492</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3838049442236571</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3096598523146805</v>
+        <v>0.2968114576735513</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4810378925935284</v>
+        <v>0.4770449584397605</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4039</v>
+        <v>4182</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1539445387478348</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6302354493367907</v>
+        <v>0.6526160430138184</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>51</v>
@@ -6896,19 +6896,19 @@
         <v>55287</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>43111</v>
+        <v>43926</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>67433</v>
+        <v>68641</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3738453034048302</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2915111139152953</v>
+        <v>0.2970225100170928</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4559791982956858</v>
+        <v>0.4641473061628256</v>
       </c>
     </row>
     <row r="41">
@@ -6925,19 +6925,19 @@
         <v>16234</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8920</v>
+        <v>9494</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24963</v>
+        <v>27854</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1147443132240702</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0630484746964465</v>
+        <v>0.0671066897693597</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1764404094234331</v>
+        <v>0.1968800613216843</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4251</v>
+        <v>4260</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1568105407501471</v>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6634225644301261</v>
+        <v>0.6648033346359457</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>14</v>
@@ -6967,19 +6967,19 @@
         <v>17239</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9688</v>
+        <v>9993</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>28585</v>
+        <v>27899</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1165670043304201</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.06550620282770798</v>
+        <v>0.06757170579307731</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1932881786725168</v>
+        <v>0.1886500944006029</v>
       </c>
     </row>
     <row r="42">
@@ -6996,19 +6996,19 @@
         <v>4326</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13817</v>
+        <v>11943</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03057529132003911</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.007447599756394667</v>
+        <v>0.00740597337459064</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09765955191620708</v>
+        <v>0.08441759177197129</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -7030,19 +7030,19 @@
         <v>4326</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>12720</v>
+        <v>12654</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02925049195388374</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.007094496390241286</v>
+        <v>0.007118942914124701</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08601077353629051</v>
+        <v>0.0855630069802412</v>
       </c>
     </row>
     <row r="43">
@@ -7059,19 +7059,19 @@
         <v>8264</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3250</v>
+        <v>3702</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>15848</v>
+        <v>17418</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05841482984094182</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02296956510080116</v>
+        <v>0.02616543924162931</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1120182291449955</v>
+        <v>0.1231164530568897</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -7093,19 +7093,19 @@
         <v>8264</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3769</v>
+        <v>3880</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>16499</v>
+        <v>17006</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05588376877148823</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.02548327736185856</v>
+        <v>0.02623589358633795</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1115663551304655</v>
+        <v>0.1149904837817617</v>
       </c>
     </row>
     <row r="44">
@@ -7122,19 +7122,19 @@
         <v>3115</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>924</v>
+        <v>892</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8503</v>
+        <v>8377</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02201394921515604</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.006527970335445827</v>
+        <v>0.006304468144842107</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06010404650657854</v>
+        <v>0.05920718637133544</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -7156,19 +7156,19 @@
         <v>3115</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>8972</v>
+        <v>8392</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02106010496027887</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006202125895490028</v>
+        <v>0.006131805703881525</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.06067077374623343</v>
+        <v>0.05674796721282231</v>
       </c>
     </row>
     <row r="45">
@@ -7185,19 +7185,19 @@
         <v>67780</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>53919</v>
+        <v>54565</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>79546</v>
+        <v>80374</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4790808317152842</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3811093221884267</v>
+        <v>0.3856790000825199</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5622448820705443</v>
+        <v>0.5680992071880551</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>5</v>
@@ -7206,7 +7206,7 @@
         <v>5422</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2369</v>
+        <v>2226</v>
       </c>
       <c r="M45" s="5" t="n">
         <v>6408</v>
@@ -7215,7 +7215,7 @@
         <v>0.8460554612521652</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.3697645506632097</v>
+        <v>0.3473839569861819</v>
       </c>
       <c r="P45" s="6" t="n">
         <v>1</v>
@@ -7227,19 +7227,19 @@
         <v>73201</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>61051</v>
+        <v>60438</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>85613</v>
+        <v>85643</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.4949815062670561</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.4128206047257394</v>
+        <v>0.4086796999020734</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.578909679833769</v>
+        <v>0.5791092287171624</v>
       </c>
     </row>
     <row r="46">
@@ -7260,19 +7260,19 @@
         <v>160776</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1970111989947081</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>32</v>
@@ -7281,19 +7281,19 @@
         <v>34474</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>24880</v>
+        <v>23539</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>48211</v>
+        <v>46894</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08918084158552782</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06436110133810984</v>
+        <v>0.06089297614524579</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1247166640613382</v>
+        <v>0.1213098942398595</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>180</v>
@@ -7302,19 +7302,19 @@
         <v>195250</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>170918</v>
+        <v>169057</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>223632</v>
+        <v>224125</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1623512944032847</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1421190670827721</v>
+        <v>0.1405724320074752</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1859513318472903</v>
+        <v>0.1863612369592128</v>
       </c>
     </row>
     <row r="47">
@@ -7331,19 +7331,19 @@
         <v>86275</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>68199</v>
+        <v>69811</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>106098</v>
+        <v>107252</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1057195120927983</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08356989102812284</v>
+        <v>0.08554512908171695</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1300102799200624</v>
+        <v>0.1314242065405452</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>30</v>
@@ -7352,19 +7352,19 @@
         <v>34120</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>23134</v>
+        <v>24193</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>47098</v>
+        <v>49865</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08826475840837188</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05984457403281686</v>
+        <v>0.06258487839055131</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1218369232373616</v>
+        <v>0.1289960918323708</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>109</v>
@@ -7373,19 +7373,19 @@
         <v>120395</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>101070</v>
+        <v>98671</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>142384</v>
+        <v>143456</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.100109031779974</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08404057428747684</v>
+        <v>0.08204524375136643</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1183928959825496</v>
+        <v>0.1192849178001658</v>
       </c>
     </row>
     <row r="48">
@@ -7402,19 +7402,19 @@
         <v>17144</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9893</v>
+        <v>10131</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>27873</v>
+        <v>28140</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02100840686648</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01212304406111608</v>
+        <v>0.01241489368249413</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03415557892261419</v>
+        <v>0.03448261401592706</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>18</v>
@@ -7423,19 +7423,19 @@
         <v>19143</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>11485</v>
+        <v>11371</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>29282</v>
+        <v>29007</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.04952194014234908</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02971085658554116</v>
+        <v>0.02941456597556651</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.07575033240690114</v>
+        <v>0.07503793283111447</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>34</v>
@@ -7444,19 +7444,19 @@
         <v>36288</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>24986</v>
+        <v>25654</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>49204</v>
+        <v>50950</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03017350996593298</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02077588089349098</v>
+        <v>0.02133134986575567</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04091321152265709</v>
+        <v>0.04236494353213351</v>
       </c>
     </row>
     <row r="49">
@@ -7473,19 +7473,19 @@
         <v>63249</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.07750462479265627</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>28</v>
@@ -7494,19 +7494,19 @@
         <v>31362</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>21894</v>
+        <v>20972</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>45497</v>
+        <v>43978</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08113006587733479</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05663635235023463</v>
+        <v>0.0542529977100069</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1176956717851078</v>
+        <v>0.1137672476144442</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>86</v>
@@ -7515,19 +7515,19 @@
         <v>94611</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>77316</v>
+        <v>76211</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>118388</v>
+        <v>116974</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.0786699500787439</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06428894628481133</v>
+        <v>0.06337019256574011</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.09844012968822373</v>
+        <v>0.09726468729139473</v>
       </c>
     </row>
     <row r="50">
@@ -7544,19 +7544,19 @@
         <v>30416</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03727126385474394</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>11</v>
@@ -7565,19 +7565,19 @@
         <v>12387</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>6049</v>
+        <v>6407</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>21132</v>
+        <v>22450</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.03204416502593364</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01564914951025814</v>
+        <v>0.01657551846487611</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.05466674580952159</v>
+        <v>0.0580768784410002</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>40</v>
@@ -7586,19 +7586,19 @@
         <v>42803</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>31916</v>
+        <v>31774</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>58407</v>
+        <v>57208</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.03559111782676572</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02653817855252924</v>
+        <v>0.02642032266392394</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0485656747872707</v>
+        <v>0.04756860992195402</v>
       </c>
     </row>
     <row r="51">
@@ -7615,19 +7615,19 @@
         <v>549572</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.6734354511933404</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>273</v>
@@ -7636,19 +7636,19 @@
         <v>299655</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>281234</v>
+        <v>281836</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>314619</v>
+        <v>317475</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.7751785687476537</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.7275233807978522</v>
+        <v>0.7290823096183738</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.8138878409392467</v>
+        <v>0.8212771711365582</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>785</v>
@@ -7657,19 +7657,19 @@
         <v>849228</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>813008</v>
+        <v>815196</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>880244</v>
+        <v>878355</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.7061387346841382</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.6760217306435646</v>
+        <v>0.6778407519312715</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.7319285241105475</v>
+        <v>0.7303578141698491</v>
       </c>
     </row>
     <row r="52">
@@ -7946,19 +7946,19 @@
         <v>3785</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7730</v>
+        <v>7717</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2293950284468128</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05771393106508024</v>
+        <v>0.05721137841086596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4685194119066554</v>
+        <v>0.4677240409994454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -7967,19 +7967,19 @@
         <v>3785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>944</v>
+        <v>984</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8603</v>
+        <v>8605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.145872755645936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03639925101048192</v>
+        <v>0.03793353836010363</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3315811381948181</v>
+        <v>0.3316487747257373</v>
       </c>
     </row>
     <row r="5">
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4134</v>
+        <v>5012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06216968296626742</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2505356984119979</v>
+        <v>0.3037794788922502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -8033,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5103</v>
+        <v>6145</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03953382526782324</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1966820383083431</v>
+        <v>0.2368455703564954</v>
       </c>
     </row>
     <row r="6">
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4149</v>
+        <v>4335</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1060709002182024</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4391353268938211</v>
+        <v>0.4588625314231709</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -8083,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5084</v>
+        <v>5087</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06087083726481966</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3081618459038107</v>
+        <v>0.3083391693381496</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6146</v>
+        <v>6026</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07732809012757973</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2368582018268992</v>
+        <v>0.2322474805413247</v>
       </c>
     </row>
     <row r="7">
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5950</v>
+        <v>5890</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1182120977279021</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3606147696932294</v>
+        <v>0.3570086706089738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5970</v>
+        <v>5877</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07517130847608551</v>
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2300741103576696</v>
+        <v>0.2264988906351848</v>
       </c>
     </row>
     <row r="8">
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4149</v>
+        <v>4335</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1060709002182024</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4391353268938211</v>
+        <v>0.4588625314231709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4998</v>
+        <v>4889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06087083726481966</v>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3029421405991718</v>
+        <v>0.2963167263229126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7048</v>
+        <v>6929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07732809012757973</v>
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2716349220436299</v>
+        <v>0.267055894989695</v>
       </c>
     </row>
     <row r="9">
@@ -8264,7 +8264,7 @@
         <v>8445</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5298</v>
+        <v>5112</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>9447</v>
@@ -8273,7 +8273,7 @@
         <v>0.8939290997817976</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5608646731061788</v>
+        <v>0.5411374685768179</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>1</v>
@@ -8285,19 +8285,19 @@
         <v>10684</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6600</v>
+        <v>6724</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13685</v>
+        <v>13692</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6475644513221001</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4000119747474288</v>
+        <v>0.4075312857159907</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8294141162541523</v>
+        <v>0.8298592751767649</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -8306,19 +8306,19 @@
         <v>19129</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>13806</v>
+        <v>14054</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22967</v>
+        <v>22975</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.737265328958661</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.532090180281832</v>
+        <v>0.5416593468753024</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8851951758224075</v>
+        <v>0.8854751454988279</v>
       </c>
     </row>
     <row r="10">
@@ -8339,19 +8339,19 @@
         <v>3149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8309</v>
+        <v>8983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06479124573308054</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02051358551313245</v>
+        <v>0.02080270924361924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1709874896694043</v>
+        <v>0.1848462114079732</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6544</v>
+        <v>6503</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03326054068778529</v>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1128905286509948</v>
+        <v>0.1121819946223846</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -8381,19 +8381,19 @@
         <v>5077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1821</v>
+        <v>1948</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11095</v>
+        <v>10811</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04763922556214711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01709089878722224</v>
+        <v>0.01827579646075171</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1041167692866515</v>
+        <v>0.1014513779564024</v>
       </c>
     </row>
     <row r="11">
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8911</v>
+        <v>9933</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05791148018465342</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1833787740047111</v>
+        <v>0.2044035267483004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -8431,19 +8431,19 @@
         <v>2774</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7223</v>
+        <v>7447</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04785689521208798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01542088164743557</v>
+        <v>0.01556422391574893</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.124605512323369</v>
+        <v>0.1284706042962072</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -8452,19 +8452,19 @@
         <v>5588</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1862</v>
+        <v>2103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12245</v>
+        <v>12676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05244200387538392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01747230223825005</v>
+        <v>0.01973683992292042</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1149051925420235</v>
+        <v>0.1189572817050025</v>
       </c>
     </row>
     <row r="12">
@@ -8481,19 +8481,19 @@
         <v>4404</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1278</v>
+        <v>1100</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10021</v>
+        <v>9725</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09062341012632642</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02629489257571033</v>
+        <v>0.02263236322302328</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2062067505457078</v>
+        <v>0.2001257880114094</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -8502,19 +8502,19 @@
         <v>12209</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7046</v>
+        <v>6779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18931</v>
+        <v>19762</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2106195089890194</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1215560880864002</v>
+        <v>0.1169360577779751</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3265736804097584</v>
+        <v>0.3409039936460578</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -8523,19 +8523,19 @@
         <v>16613</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10256</v>
+        <v>10004</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25417</v>
+        <v>25014</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1558986871989314</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09624655845062717</v>
+        <v>0.09387727818145038</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2385138818236764</v>
+        <v>0.2347380709191165</v>
       </c>
     </row>
     <row r="13">
@@ -8552,19 +8552,19 @@
         <v>4631</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1551</v>
+        <v>1077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10155</v>
+        <v>10716</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09529558751479469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03190967298163002</v>
+        <v>0.02216418913470874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2089760953012865</v>
+        <v>0.2205203546134878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -8573,19 +8573,19 @@
         <v>5410</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2564</v>
+        <v>1831</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11149</v>
+        <v>10893</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0933345734894607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04423094918792488</v>
+        <v>0.03158340765192776</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1923375700489604</v>
+        <v>0.1879058447586514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -8594,19 +8594,19 @@
         <v>10041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4860</v>
+        <v>5073</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17506</v>
+        <v>17340</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09422883838661335</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04560978150632474</v>
+        <v>0.04760755169351134</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1642813996578882</v>
+        <v>0.1627260088202505</v>
       </c>
     </row>
     <row r="14">
@@ -8623,19 +8623,19 @@
         <v>4183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10382</v>
+        <v>9609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08606857869878311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02095269631323341</v>
+        <v>0.02111778128377015</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2136412371373996</v>
+        <v>0.1977432662273341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -8644,19 +8644,19 @@
         <v>4638</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9418</v>
+        <v>10225</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08001820526508083</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03108329429852015</v>
+        <v>0.03110440775014545</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1624627763149079</v>
+        <v>0.1763829389390029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -8665,19 +8665,19 @@
         <v>8821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3806</v>
+        <v>4044</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15797</v>
+        <v>15956</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08277730668226897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03571937867980596</v>
+        <v>0.03794553154413502</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1482420049917559</v>
+        <v>0.1497309472720887</v>
       </c>
     </row>
     <row r="15">
@@ -8694,19 +8694,19 @@
         <v>41727</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35723</v>
+        <v>35258</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>46051</v>
+        <v>46059</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8586709967294429</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7351180076267285</v>
+        <v>0.7255438556786978</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9476530681347434</v>
+        <v>0.9478158760613616</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>39</v>
@@ -8715,19 +8715,19 @@
         <v>38379</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30483</v>
+        <v>30080</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>45164</v>
+        <v>44795</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.6620649401423842</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5258521451454701</v>
+        <v>0.5189019988713544</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.7791236202773311</v>
+        <v>0.7727519931140914</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>78</v>
@@ -8736,19 +8736,19 @@
         <v>80105</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>70746</v>
+        <v>71763</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>88497</v>
+        <v>89813</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7517215630436243</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6638963176092249</v>
+        <v>0.673437096605376</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8304745071556755</v>
+        <v>0.8428202795666149</v>
       </c>
     </row>
     <row r="16">
@@ -8769,19 +8769,19 @@
         <v>3020</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7639</v>
+        <v>8425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04062933645375529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01188387785657265</v>
+        <v>0.01171467276410459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1027790487727746</v>
+        <v>0.1133564535675544</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8790,19 +8790,19 @@
         <v>3009</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8264</v>
+        <v>7894</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03421822065430838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01062246296074142</v>
+        <v>0.01050787029200324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09397920761876047</v>
+        <v>0.08977392176673951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -8811,19 +8811,19 @@
         <v>6029</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12941</v>
+        <v>13307</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03715476905981868</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01316335379280862</v>
+        <v>0.01317276461872916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07975407443966935</v>
+        <v>0.08201380044830926</v>
       </c>
     </row>
     <row r="17">
@@ -8840,19 +8840,19 @@
         <v>11862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7023</v>
+        <v>6293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20391</v>
+        <v>19219</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1596109243664415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09449144138213002</v>
+        <v>0.0846776190396003</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2743633570799012</v>
+        <v>0.2585942444016609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -8861,19 +8861,19 @@
         <v>16594</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9807</v>
+        <v>9983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24885</v>
+        <v>24567</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1887094871108164</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1115289770976937</v>
+        <v>0.1135253192658424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2829945273917187</v>
+        <v>0.2793732942784332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -8882,19 +8882,19 @@
         <v>28457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19632</v>
+        <v>19459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39991</v>
+        <v>39488</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1753811772342412</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1209965851345109</v>
+        <v>0.1199263995558839</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2464674648334756</v>
+        <v>0.2433714285673019</v>
       </c>
     </row>
     <row r="18">
@@ -8911,19 +8911,19 @@
         <v>9593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4515</v>
+        <v>4370</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16384</v>
+        <v>16721</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1290732282680895</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06074833743629268</v>
+        <v>0.05879316034403104</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2204499694578139</v>
+        <v>0.2249880964940627</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -8932,19 +8932,19 @@
         <v>11861</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6540</v>
+        <v>7155</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19876</v>
+        <v>19949</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1348817541999059</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07436984834918962</v>
+        <v>0.0813681554977491</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.226027297592383</v>
+        <v>0.226858110496588</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>21</v>
@@ -8953,19 +8953,19 @@
         <v>21454</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13854</v>
+        <v>13752</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>30197</v>
+        <v>31274</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1322212161442819</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0853857458668381</v>
+        <v>0.08475688759246806</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1861093900858481</v>
+        <v>0.1927463244648532</v>
       </c>
     </row>
     <row r="19">
@@ -8982,19 +8982,19 @@
         <v>6749</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2876</v>
+        <v>2900</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13630</v>
+        <v>12652</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09081380034616186</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03869196108935394</v>
+        <v>0.0390193326093246</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1834020115939927</v>
+        <v>0.1702346473608334</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -9003,19 +9003,19 @@
         <v>4721</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1795</v>
+        <v>1848</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10367</v>
+        <v>10762</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05369121238357372</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02041430006408002</v>
+        <v>0.02101342256095692</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1178961450824522</v>
+        <v>0.1223800461501104</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -9024,19 +9024,19 @@
         <v>11471</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6659</v>
+        <v>6806</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19509</v>
+        <v>19694</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07069484792847504</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04104224188697277</v>
+        <v>0.04194357397140779</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1202387799199468</v>
+        <v>0.1213769959442278</v>
       </c>
     </row>
     <row r="20">
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7670</v>
+        <v>7215</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03071369878583342</v>
@@ -9065,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1031981494976889</v>
+        <v>0.09708444188915323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7018</v>
+        <v>7067</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02344948073613818</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07980243858957607</v>
+        <v>0.08036532787991732</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -9095,19 +9095,19 @@
         <v>4345</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10958</v>
+        <v>10429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02677678421940266</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007007678643611383</v>
+        <v>0.006960840566626104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06753333486839094</v>
+        <v>0.06427527608638835</v>
       </c>
     </row>
     <row r="21">
@@ -9124,19 +9124,19 @@
         <v>58440</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>48694</v>
+        <v>50003</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>64356</v>
+        <v>64785</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.78633291150236</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6551969316358349</v>
+        <v>0.6728089300536212</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8659331134022626</v>
+        <v>0.8717046724407479</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -9145,19 +9145,19 @@
         <v>66267</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>56963</v>
+        <v>56731</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73736</v>
+        <v>74086</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.7535792536406973</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6477819978309369</v>
+        <v>0.6451402264987033</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.8385169547501845</v>
+        <v>0.8425026324582846</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>119</v>
@@ -9166,19 +9166,19 @@
         <v>124707</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>112928</v>
+        <v>112555</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>134658</v>
+        <v>134247</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7685817438120015</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6959864589157336</v>
+        <v>0.6936862216035543</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.8299089334815628</v>
+        <v>0.8273772194389619</v>
       </c>
     </row>
     <row r="22">
@@ -9199,19 +9199,19 @@
         <v>21919</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14463</v>
+        <v>14737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31518</v>
+        <v>32240</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2025992125179351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1336836392037727</v>
+        <v>0.1362137431996837</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2913245611943287</v>
+        <v>0.2979978337406058</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -9220,19 +9220,19 @@
         <v>8237</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4057</v>
+        <v>4094</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16701</v>
+        <v>14593</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09335407422315894</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04597702700013221</v>
+        <v>0.04639692227934521</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1892941313794428</v>
+        <v>0.1653944821948201</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -9241,19 +9241,19 @@
         <v>30155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21186</v>
+        <v>20932</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>41921</v>
+        <v>41804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1535273268477969</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1078634256311866</v>
+        <v>0.1065675982019157</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2134280490021253</v>
+        <v>0.2128309150950469</v>
       </c>
     </row>
     <row r="23">
@@ -9270,19 +9270,19 @@
         <v>20899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13408</v>
+        <v>14176</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31617</v>
+        <v>30769</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1931732520110545</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1239306786450379</v>
+        <v>0.1310305081170648</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2922386295358539</v>
+        <v>0.2843993567561458</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -9291,19 +9291,19 @@
         <v>10207</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5370</v>
+        <v>4999</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17711</v>
+        <v>17470</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1156924343869332</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06086966946223547</v>
+        <v>0.05666217357244839</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.200743722989508</v>
+        <v>0.1980111731880611</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -9312,19 +9312,19 @@
         <v>31106</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21513</v>
+        <v>21424</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43230</v>
+        <v>43146</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1583695995700606</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1095248908431872</v>
+        <v>0.1090715780054953</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2200913472524703</v>
+        <v>0.2196671953919399</v>
       </c>
     </row>
     <row r="24">
@@ -9341,19 +9341,19 @@
         <v>7720</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3221</v>
+        <v>3177</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14732</v>
+        <v>15170</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07135572502069175</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02977393445808854</v>
+        <v>0.0293609967065688</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1361742702403677</v>
+        <v>0.1402163278887607</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -9362,19 +9362,19 @@
         <v>11274</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5456</v>
+        <v>5989</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18595</v>
+        <v>18828</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1277860115556343</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06183776513202795</v>
+        <v>0.06788331061212544</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2107590289053882</v>
+        <v>0.2134029499767082</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -9383,19 +9383,19 @@
         <v>18994</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11469</v>
+        <v>11211</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28784</v>
+        <v>29309</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09670367745500386</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05838884442917625</v>
+        <v>0.05707705060281162</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1465449737522488</v>
+        <v>0.1492170033908523</v>
       </c>
     </row>
     <row r="25">
@@ -9412,19 +9412,19 @@
         <v>15386</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9235</v>
+        <v>9350</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24301</v>
+        <v>24555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1422178153217034</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08536182240774717</v>
+        <v>0.08642141722464677</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2246224359191688</v>
+        <v>0.2269646107339651</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -9433,19 +9433,19 @@
         <v>12439</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7211</v>
+        <v>7294</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20188</v>
+        <v>19668</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1409900567555224</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08173584003541491</v>
+        <v>0.082676593260191</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2288111731457932</v>
+        <v>0.2229152171222331</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -9454,19 +9454,19 @@
         <v>27826</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>19125</v>
+        <v>19636</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>39327</v>
+        <v>39870</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1416663177545751</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09737046353318964</v>
+        <v>0.09997196212617766</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2002237906586894</v>
+        <v>0.2029854147058347</v>
       </c>
     </row>
     <row r="26">
@@ -9483,19 +9483,19 @@
         <v>3353</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9239</v>
+        <v>9896</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03099138644926978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008951242150175157</v>
+        <v>0.009126381006938664</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08539648401679004</v>
+        <v>0.09146921836224302</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -9504,19 +9504,19 @@
         <v>5197</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2000</v>
+        <v>2049</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11589</v>
+        <v>11915</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05889808428813648</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02266392898572036</v>
+        <v>0.02322030631714311</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1313524953093221</v>
+        <v>0.1350436047150101</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -9525,19 +9525,19 @@
         <v>8549</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4189</v>
+        <v>4020</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17411</v>
+        <v>15456</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04352681188930001</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02132769192973172</v>
+        <v>0.0204648737376311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08864372410704466</v>
+        <v>0.07868881903434533</v>
       </c>
     </row>
     <row r="27">
@@ -9554,19 +9554,19 @@
         <v>58049</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>45604</v>
+        <v>46058</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>68604</v>
+        <v>68358</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5365554847174827</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4215238860125437</v>
+        <v>0.4257202353121611</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6341223834515362</v>
+        <v>0.6318441997604203</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>53</v>
@@ -9575,19 +9575,19 @@
         <v>58533</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>48058</v>
+        <v>49643</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>67407</v>
+        <v>66821</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6634163044884129</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5446942515090394</v>
+        <v>0.5626647662454055</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7639991929733905</v>
+        <v>0.7573540894142894</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>105</v>
@@ -9596,19 +9596,19 @@
         <v>116581</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>101357</v>
+        <v>102025</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>129738</v>
+        <v>130141</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.59354016834726</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5160281131416756</v>
+        <v>0.5194287921094286</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6605226082067397</v>
+        <v>0.6625771055139678</v>
       </c>
     </row>
     <row r="28">
@@ -9629,19 +9629,19 @@
         <v>28448</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19797</v>
+        <v>20346</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38752</v>
+        <v>40270</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2139027579633392</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1488526050268387</v>
+        <v>0.1529847696005971</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2913799768646923</v>
+        <v>0.3027887954611334</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -9650,19 +9650,19 @@
         <v>7956</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3411</v>
+        <v>3396</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14669</v>
+        <v>14983</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1397778623485291</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05992285158242124</v>
+        <v>0.05965825107339693</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2577160429091582</v>
+        <v>0.2632310251483815</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>32</v>
@@ -9671,19 +9671,19 @@
         <v>36404</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>26076</v>
+        <v>25310</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49785</v>
+        <v>47615</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1916869314202179</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1373020986287714</v>
+        <v>0.1332722526238431</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2621436037287084</v>
+        <v>0.2507178165997762</v>
       </c>
     </row>
     <row r="29">
@@ -9700,19 +9700,19 @@
         <v>17928</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10554</v>
+        <v>10429</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28458</v>
+        <v>28242</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1348016588424206</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07935482036088223</v>
+        <v>0.07841312085500338</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2139739909548409</v>
+        <v>0.2123510457550994</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -9721,19 +9721,19 @@
         <v>10927</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5237</v>
+        <v>5267</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17845</v>
+        <v>17983</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1919741694583851</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09201201098618532</v>
+        <v>0.09252688125387627</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3135161928532196</v>
+        <v>0.3159326653933552</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -9742,19 +9742,19 @@
         <v>28855</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19025</v>
+        <v>19366</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>39933</v>
+        <v>40962</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1519367194498483</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1001788750316739</v>
+        <v>0.1019694271222066</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2102689361804289</v>
+        <v>0.2156845258632092</v>
       </c>
     </row>
     <row r="30">
@@ -9771,19 +9771,19 @@
         <v>17611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10057</v>
+        <v>10994</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26982</v>
+        <v>27664</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1324173847019038</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0756217770873442</v>
+        <v>0.08266752376847518</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2028820104425266</v>
+        <v>0.208005949166211</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -9792,19 +9792,19 @@
         <v>5874</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1835</v>
+        <v>1820</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>13730</v>
+        <v>13695</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.103193889874836</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03223226776234175</v>
+        <v>0.03197392794335337</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2412229075426673</v>
+        <v>0.2406051324020107</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -9813,19 +9813,19 @@
         <v>23485</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14762</v>
+        <v>14908</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>34016</v>
+        <v>35191</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1236588685963887</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07773172736906547</v>
+        <v>0.07849771326468274</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1791101495987819</v>
+        <v>0.1852967524696769</v>
       </c>
     </row>
     <row r="31">
@@ -9842,19 +9842,19 @@
         <v>15843</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9117</v>
+        <v>9050</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25977</v>
+        <v>25269</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1191208680189458</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06855016212285824</v>
+        <v>0.0680470764890309</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1953215417253146</v>
+        <v>0.1899960549622981</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -9866,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10063</v>
+        <v>8973</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03263647519441002</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1767949722636311</v>
+        <v>0.1576389710813144</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>14</v>
@@ -9884,19 +9884,19 @@
         <v>17700</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>9520</v>
+        <v>9979</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29126</v>
+        <v>27228</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09320080089789119</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05012960084745807</v>
+        <v>0.05254625284811791</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1533650665749349</v>
+        <v>0.1433714932110067</v>
       </c>
     </row>
     <row r="32">
@@ -9913,19 +9913,19 @@
         <v>7749</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2928</v>
+        <v>2758</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16940</v>
+        <v>15210</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05826556650766133</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02201765504983175</v>
+        <v>0.02073386721075129</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1273722704077555</v>
+        <v>0.1143631572762191</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -9937,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7573</v>
+        <v>6641</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0381208165937319</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1330488862448535</v>
+        <v>0.116667382692859</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -9955,19 +9955,19 @@
         <v>9919</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4503</v>
+        <v>4415</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19199</v>
+        <v>18528</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0522280231677285</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0237093648683098</v>
+        <v>0.02324472847277041</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1010930082500652</v>
+        <v>0.09755990748025557</v>
       </c>
     </row>
     <row r="33">
@@ -9984,19 +9984,19 @@
         <v>76121</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>64514</v>
+        <v>64823</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>88066</v>
+        <v>86983</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5723531075824178</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4850785174305316</v>
+        <v>0.4874049663204571</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6621720792959311</v>
+        <v>0.6540248960491988</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>33</v>
@@ -10005,19 +10005,19 @@
         <v>41351</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>32945</v>
+        <v>34046</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>47211</v>
+        <v>48094</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.7264846048624806</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.5788060243880249</v>
+        <v>0.5981499965873629</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.8294390731232839</v>
+        <v>0.8449525995685263</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>103</v>
@@ -10026,19 +10026,19 @@
         <v>117471</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>102505</v>
+        <v>103895</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>130696</v>
+        <v>131900</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.6185475552103655</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.5397428942572389</v>
+        <v>0.5470596469868044</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.6881817421131369</v>
+        <v>0.6945192882976894</v>
       </c>
     </row>
     <row r="34">
@@ -10059,19 +10059,19 @@
         <v>29837</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>20514</v>
+        <v>20889</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>41293</v>
+        <v>39824</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2421375755490044</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1664746543548691</v>
+        <v>0.1695225521328478</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.335111112839162</v>
+        <v>0.3231893170463754</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -10080,19 +10080,19 @@
         <v>5161</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1737</v>
+        <v>1976</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9527</v>
+        <v>9643</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2003178626963245</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06742129340234267</v>
+        <v>0.07668009198423986</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3698041302525758</v>
+        <v>0.3742804819567117</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -10101,19 +10101,19 @@
         <v>34998</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>25706</v>
+        <v>25544</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>46682</v>
+        <v>46787</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2349060322366362</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1725414761810835</v>
+        <v>0.1714538503852877</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3133328629005387</v>
+        <v>0.3140384808498274</v>
       </c>
     </row>
     <row r="35">
@@ -10130,19 +10130,19 @@
         <v>20779</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13608</v>
+        <v>14112</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29892</v>
+        <v>29691</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1686289801583508</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1104323398872808</v>
+        <v>0.1145254692938165</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.242587043776767</v>
+        <v>0.2409551761704406</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -10151,19 +10151,19 @@
         <v>2994</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7362</v>
+        <v>7803</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.11619871651413</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03515833906169252</v>
+        <v>0.03607092059463617</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2857425647779422</v>
+        <v>0.3028924048852016</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>24</v>
@@ -10172,19 +10172,19 @@
         <v>23773</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>16379</v>
+        <v>15771</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>34259</v>
+        <v>33763</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1595626404692737</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1099363207459324</v>
+        <v>0.1058567015897879</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2299477182804816</v>
+        <v>0.2266168605147401</v>
       </c>
     </row>
     <row r="36">
@@ -10201,19 +10201,19 @@
         <v>9727</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4753</v>
+        <v>4750</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16977</v>
+        <v>16465</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.07894123118156418</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03857287622123785</v>
+        <v>0.03854596344435548</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.137773635813962</v>
+        <v>0.1336185512509699</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5324</v>
+        <v>5333</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04027099959281612</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.206638785720039</v>
+        <v>0.2070000887498746</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>11</v>
@@ -10243,19 +10243,19 @@
         <v>10765</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>5538</v>
+        <v>4992</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>17492</v>
+        <v>17665</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07225430208622445</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03717297223445884</v>
+        <v>0.03350505910017534</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1174084368426316</v>
+        <v>0.1185709732934311</v>
       </c>
     </row>
     <row r="37">
@@ -10272,19 +10272,19 @@
         <v>20344</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12274</v>
+        <v>12733</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>30352</v>
+        <v>30679</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1650971365456924</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09960936349866771</v>
+        <v>0.1033311649750232</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2463140911573273</v>
+        <v>0.2489728149910481</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4450</v>
+        <v>5415</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04203129182665748</v>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1727321026597122</v>
+        <v>0.2101809810719283</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>19</v>
@@ -10314,19 +10314,19 @@
         <v>21427</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13786</v>
+        <v>13509</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32636</v>
+        <v>31225</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1438163594754633</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09253187770571673</v>
+        <v>0.09067139987646206</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2190553895070282</v>
+        <v>0.2095860765899974</v>
       </c>
     </row>
     <row r="38">
@@ -10343,19 +10343,19 @@
         <v>6708</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2763</v>
+        <v>2826</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>12669</v>
+        <v>13186</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05443951255992353</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.02242219095957023</v>
+        <v>0.02293732238040792</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1028151661052571</v>
+        <v>0.1070123462139916</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5632</v>
+        <v>5134</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.0401952970148972</v>
@@ -10376,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2186020810899951</v>
+        <v>0.1992951870142086</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -10385,19 +10385,19 @@
         <v>7744</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3776</v>
+        <v>3738</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>14438</v>
+        <v>13976</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.05197637604754634</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.02534695795715266</v>
+        <v>0.02509094539656149</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09690950547275347</v>
+        <v>0.09380580854601286</v>
       </c>
     </row>
     <row r="39">
@@ -10414,19 +10414,19 @@
         <v>63423</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>52261</v>
+        <v>52362</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>76385</v>
+        <v>74665</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.514699054931659</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4241141996810336</v>
+        <v>0.4249374290711803</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.6198894970707953</v>
+        <v>0.6059336564159626</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>15</v>
@@ -10435,19 +10435,19 @@
         <v>16573</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>11458</v>
+        <v>10955</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>21306</v>
+        <v>20791</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6432881237746483</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.444748882970778</v>
+        <v>0.4252344715183787</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.8269981671789369</v>
+        <v>0.807006823798732</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>77</v>
@@ -10456,19 +10456,19 @@
         <v>79996</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>67788</v>
+        <v>67901</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>91666</v>
+        <v>91703</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5369349182937762</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.4549961338785514</v>
+        <v>0.4557527159924367</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.6152681718649085</v>
+        <v>0.6155138411097295</v>
       </c>
     </row>
     <row r="40">
@@ -10489,19 +10489,19 @@
         <v>30530</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>22765</v>
+        <v>22503</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>39207</v>
+        <v>39796</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2807953329888769</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2093816905867426</v>
+        <v>0.2069687226223394</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3606041338161521</v>
+        <v>0.3660211557222049</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -10523,19 +10523,19 @@
         <v>30530</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>22806</v>
+        <v>23021</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>40425</v>
+        <v>40159</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2744952233677002</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2050515746948036</v>
+        <v>0.206978936646927</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3634612682425539</v>
+        <v>0.3610698670422432</v>
       </c>
     </row>
     <row r="41">
@@ -10552,19 +10552,19 @@
         <v>20768</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14351</v>
+        <v>14117</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>28730</v>
+        <v>28585</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.191016758433625</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1319898748658255</v>
+        <v>0.1298366208559045</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.264239954747503</v>
+        <v>0.2629115257989522</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -10594,19 +10594,19 @@
         <v>21978</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>15432</v>
+        <v>14982</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>29822</v>
+        <v>30415</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1976083487269625</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1387500176175463</v>
+        <v>0.1347017263598296</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2681301400364419</v>
+        <v>0.273464605444546</v>
       </c>
     </row>
     <row r="42">
@@ -10623,19 +10623,19 @@
         <v>7269</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3423</v>
+        <v>3585</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13471</v>
+        <v>13476</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06685867497288531</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03148367075864011</v>
+        <v>0.03297066824090635</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1238981605370816</v>
+        <v>0.1239445051905889</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -10657,19 +10657,19 @@
         <v>7269</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3419</v>
+        <v>3365</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>13475</v>
+        <v>14114</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06535858956558088</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03073891082834817</v>
+        <v>0.03025467504367427</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1211558592351811</v>
+        <v>0.1268978658261371</v>
       </c>
     </row>
     <row r="43">
@@ -10686,19 +10686,19 @@
         <v>9549</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5278</v>
+        <v>5072</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>16768</v>
+        <v>15804</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.08782930816880238</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04854405811850876</v>
+        <v>0.04664542764959938</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1542202060599259</v>
+        <v>0.1453597197233938</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -10720,19 +10720,19 @@
         <v>9549</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>5015</v>
+        <v>5002</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>16499</v>
+        <v>15896</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08585871177916264</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04509160249870754</v>
+        <v>0.04497527968204523</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1483409478269369</v>
+        <v>0.1429207562964546</v>
       </c>
     </row>
     <row r="44">
@@ -10749,19 +10749,19 @@
         <v>5107</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2331</v>
+        <v>2363</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>10861</v>
+        <v>11553</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04696821024555028</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02143598769176598</v>
+        <v>0.02173228483947265</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.09988917246457266</v>
+        <v>0.1062592667105774</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -10783,19 +10783,19 @@
         <v>5107</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2356</v>
+        <v>1777</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>10613</v>
+        <v>10532</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.04591440044711904</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02118144494075984</v>
+        <v>0.01597512620222021</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.09542283741862564</v>
+        <v>0.09469238854757704</v>
       </c>
     </row>
     <row r="45">
@@ -10812,19 +10812,19 @@
         <v>58118</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>49081</v>
+        <v>48324</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>67658</v>
+        <v>66873</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.5345364377365798</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4514234862950646</v>
+        <v>0.4444571494760487</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6222784031464302</v>
+        <v>0.6150568527241107</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2</v>
@@ -10846,19 +10846,19 @@
         <v>60614</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>49966</v>
+        <v>50680</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>69583</v>
+        <v>70023</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.5449798857658216</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.4492429471746781</v>
+        <v>0.4556623535175713</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.6256260730074793</v>
+        <v>0.629581752015717</v>
       </c>
     </row>
     <row r="46">
@@ -10879,19 +10879,19 @@
         <v>116902</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>95799</v>
+        <v>98684</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>135668</v>
+        <v>138442</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1930682975635818</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1582155950777892</v>
+        <v>0.162979913051466</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2240605516341286</v>
+        <v>0.2286424064488473</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>29</v>
@@ -10900,19 +10900,19 @@
         <v>30075</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>19973</v>
+        <v>21072</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>40313</v>
+        <v>42181</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08956030299791151</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.05947625936361996</v>
+        <v>0.06274948302073621</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1200474229790627</v>
+        <v>0.1256099926049707</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>142</v>
@@ -10921,19 +10921,19 @@
         <v>146977</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>126758</v>
+        <v>126415</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>170178</v>
+        <v>173082</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1561419393900269</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1346623145714921</v>
+        <v>0.1342973433690434</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1807896401604084</v>
+        <v>0.1838751697613233</v>
       </c>
     </row>
     <row r="47">
@@ -10950,19 +10950,19 @@
         <v>95051</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>77311</v>
+        <v>77603</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>112975</v>
+        <v>115216</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1569808661171471</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.127683014659122</v>
+        <v>0.1281642072574909</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.186582573894296</v>
+        <v>0.1902844161596026</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>44</v>
@@ -10971,19 +10971,19 @@
         <v>45732</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>33981</v>
+        <v>33239</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>60495</v>
+        <v>61046</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1361848703406719</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1011927327805295</v>
+        <v>0.09898101775284218</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1801455812094535</v>
+        <v>0.1817883443133611</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>138</v>
@@ -10992,19 +10992,19 @@
         <v>140783</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>120473</v>
+        <v>119730</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>165284</v>
+        <v>163011</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.149561918509862</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1279855811603457</v>
+        <v>0.127196397960105</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.175590064443498</v>
+        <v>0.1731754547961596</v>
       </c>
     </row>
     <row r="48">
@@ -11021,19 +11021,19 @@
         <v>57326</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>44650</v>
+        <v>43289</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>72817</v>
+        <v>73200</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.09467637602070376</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.07374173301770416</v>
+        <v>0.07149427536276004</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1202609059253611</v>
+        <v>0.1208931596728652</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>40</v>
@@ -11042,19 +11042,19 @@
         <v>43260</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>30863</v>
+        <v>32578</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>56874</v>
+        <v>57290</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1288232297955589</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09190610851847164</v>
+        <v>0.09701412316007132</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1693644430624982</v>
+        <v>0.1706020966101033</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>95</v>
@@ -11063,19 +11063,19 @@
         <v>100586</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>83504</v>
+        <v>82540</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>122416</v>
+        <v>123362</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1068582268843134</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.08871142418112429</v>
+        <v>0.0876867144835464</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1300490643128646</v>
+        <v>0.1310547499734259</v>
       </c>
     </row>
     <row r="49">
@@ -11092,19 +11092,19 @@
         <v>72502</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>57063</v>
+        <v>57075</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>90609</v>
+        <v>89798</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1197402863387319</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.09424151453348434</v>
+        <v>0.0942619723759392</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1496453034013629</v>
+        <v>0.1483043487516094</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>27</v>
@@ -11113,19 +11113,19 @@
         <v>27462</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>18727</v>
+        <v>17790</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>38459</v>
+        <v>38263</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08177869876120843</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.05576816226675835</v>
+        <v>0.0529754594265789</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1145260989832519</v>
+        <v>0.1139416391904308</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>94</v>
@@ -11134,19 +11134,19 @@
         <v>99964</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>82592</v>
+        <v>81263</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>121094</v>
+        <v>120105</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.106197533572567</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0877422074895495</v>
+        <v>0.08633044215995492</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1286444819565619</v>
+        <v>0.1275941704749428</v>
       </c>
     </row>
     <row r="50">
@@ -11163,19 +11163,19 @@
         <v>30384</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>20479</v>
+        <v>21252</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>42101</v>
+        <v>44166</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.05018046349868707</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0338216377445566</v>
+        <v>0.03509895880268631</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06953077507145611</v>
+        <v>0.07294218304500849</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>16</v>
@@ -11184,19 +11184,19 @@
         <v>16107</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>10022</v>
+        <v>9877</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>25207</v>
+        <v>25433</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.04796380810479448</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02984546885040462</v>
+        <v>0.02941134715494643</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.07506472886320655</v>
+        <v>0.07573568030737318</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>45</v>
@@ -11205,19 +11205,19 @@
         <v>46491</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>35270</v>
+        <v>34427</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>61942</v>
+        <v>63009</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.04938967423293341</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.03746892023641234</v>
+        <v>0.0365737268327407</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0658044304539854</v>
+        <v>0.06693812984380643</v>
       </c>
     </row>
     <row r="51">
@@ -11234,19 +11234,19 @@
         <v>364322</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>339884</v>
+        <v>340352</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>390273</v>
+        <v>388137</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.6016936031039624</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5613329628371764</v>
+        <v>0.5621053924015181</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6445516568805778</v>
+        <v>0.6410244520973802</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>218</v>
@@ -11255,19 +11255,19 @@
         <v>234281</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>218557</v>
+        <v>217289</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>251208</v>
+        <v>251451</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.6976616030812695</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.6508375961831104</v>
+        <v>0.647060162328379</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.7480666747539766</v>
+        <v>0.7487904730075948</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>571</v>
@@ -11276,19 +11276,19 @@
         <v>598604</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>567761</v>
+        <v>568423</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>626975</v>
+        <v>629815</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.6359300768684447</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.6031639810568723</v>
+        <v>0.6038671097022204</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.6660709451025458</v>
+        <v>0.6690875889087129</v>
       </c>
     </row>
     <row r="52">
